--- a/pilot-projects/em1022_pilot_t2.xlsx
+++ b/pilot-projects/em1022_pilot_t2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlmlab\Desktop\Jason L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbf9a23e224bd51a/Documents/GitHub/Chlamydomonas_mic_JRL_2024/pilot-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_15B774B1C17FBF8F60279309D9CF8AB3435D1169" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E6E9D4E-A8F7-412E-AB4A-42143A7B7353}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9440" windowHeight="6920" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="53">
   <si>
     <t>Software Version</t>
   </si>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -231,7 +232,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +296,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC9E0F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,112 +395,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -521,10 +412,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,14 +424,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -552,9 +437,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,13 +451,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,49 +475,58 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,1287 +803,1691 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>45625</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.53780092592592588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="3">
+        <v>0.54215277777777782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="1">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="6">
+      <c r="B42" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7">
         <v>1</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D46" s="7">
         <v>2</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E46" s="7">
         <v>3</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F46" s="7">
         <v>4</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G46" s="7">
         <v>5</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H46" s="7">
         <v>6</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I46" s="7">
         <v>7</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J46" s="7">
         <v>8</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K46" s="7">
         <v>9</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L46" s="7">
         <v>10</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M46" s="7">
         <v>11</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N46" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="7">
-        <v>378</v>
-      </c>
-      <c r="D45" s="8">
-        <v>445</v>
-      </c>
-      <c r="E45" s="7">
-        <v>393</v>
-      </c>
-      <c r="F45" s="7">
-        <v>397</v>
-      </c>
-      <c r="G45" s="9">
-        <v>657</v>
-      </c>
-      <c r="H45" s="9">
-        <v>672</v>
-      </c>
-      <c r="I45" s="9">
-        <v>634</v>
-      </c>
-      <c r="J45" s="10">
-        <v>723</v>
-      </c>
-      <c r="K45" s="11">
-        <v>521</v>
-      </c>
-      <c r="L45" s="11">
+      <c r="C47" s="8">
+        <v>491</v>
+      </c>
+      <c r="D47" s="9">
+        <v>459</v>
+      </c>
+      <c r="E47" s="9">
+        <v>459</v>
+      </c>
+      <c r="F47" s="8">
+        <v>468</v>
+      </c>
+      <c r="G47" s="10">
+        <v>556</v>
+      </c>
+      <c r="H47" s="11">
+        <v>589</v>
+      </c>
+      <c r="I47" s="8">
         <v>524</v>
       </c>
-      <c r="M45" s="10">
-        <v>741</v>
-      </c>
-      <c r="N45" s="10">
+      <c r="J47" s="11">
+        <v>599</v>
+      </c>
+      <c r="K47" s="10">
+        <v>565</v>
+      </c>
+      <c r="L47" s="11">
+        <v>624</v>
+      </c>
+      <c r="M47" s="12">
         <v>679</v>
       </c>
-      <c r="O45" s="12" t="s">
+      <c r="N47" s="11">
+        <v>594</v>
+      </c>
+      <c r="O47" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
-      <c r="C46" s="13">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="43"/>
+      <c r="C48" s="14">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0.222</v>
+      </c>
+      <c r="J48" s="15">
+        <v>0.219</v>
+      </c>
+      <c r="K48" s="14">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="L48" s="14">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="M48" s="15">
+        <v>0.214</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="43"/>
+      <c r="C49" s="15">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D49" s="15">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0.191</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I49" s="16">
         <v>0.216</v>
       </c>
-      <c r="D46" s="14">
+      <c r="J49" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L49" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="N49" s="14">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="44"/>
+      <c r="C50" s="17">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D50" s="18">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0.193</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G50" s="18">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I50" s="19">
+        <v>0.217</v>
+      </c>
+      <c r="J50" s="18">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K50" s="17">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L50" s="17">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="N50" s="17">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="8">
+        <v>482</v>
+      </c>
+      <c r="D51" s="9">
+        <v>449</v>
+      </c>
+      <c r="E51" s="20">
+        <v>389</v>
+      </c>
+      <c r="F51" s="20">
+        <v>381</v>
+      </c>
+      <c r="G51" s="10">
+        <v>537</v>
+      </c>
+      <c r="H51" s="9">
+        <v>411</v>
+      </c>
+      <c r="I51" s="10">
+        <v>538</v>
+      </c>
+      <c r="J51" s="8">
+        <v>523</v>
+      </c>
+      <c r="K51" s="21">
+        <v>812</v>
+      </c>
+      <c r="L51" s="10">
+        <v>580</v>
+      </c>
+      <c r="M51" s="10">
+        <v>538</v>
+      </c>
+      <c r="N51" s="11">
+        <v>620</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="43"/>
+      <c r="C52" s="14">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0.223</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0.224</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0.217</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0.224</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0.214</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0.214</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0.221</v>
+      </c>
+      <c r="L52" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M52" s="15">
+        <v>0.214</v>
+      </c>
+      <c r="N52" s="14">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="43"/>
+      <c r="C53" s="14">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0.216</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.217</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0.218</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0.218</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="N53" s="14">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="44"/>
+      <c r="C54" s="17">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.217</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0.218</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0.221</v>
+      </c>
+      <c r="H54" s="18">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="J54" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="K54" s="19">
+        <v>0.216</v>
+      </c>
+      <c r="L54" s="18">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M54" s="18">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N54" s="17">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="8">
+        <v>506</v>
+      </c>
+      <c r="D55" s="20">
+        <v>375</v>
+      </c>
+      <c r="E55" s="20">
+        <v>394</v>
+      </c>
+      <c r="F55" s="20">
+        <v>369</v>
+      </c>
+      <c r="G55" s="9">
+        <v>456</v>
+      </c>
+      <c r="H55" s="10">
+        <v>537</v>
+      </c>
+      <c r="I55" s="8">
+        <v>484</v>
+      </c>
+      <c r="J55" s="8">
+        <v>489</v>
+      </c>
+      <c r="K55" s="8">
+        <v>481</v>
+      </c>
+      <c r="L55" s="10">
+        <v>538</v>
+      </c>
+      <c r="M55" s="11">
+        <v>609</v>
+      </c>
+      <c r="N55" s="12">
+        <v>648</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="43"/>
+      <c r="C56" s="14">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F56" s="16">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H56" s="23">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E46" s="14">
+      <c r="I56" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="J56" s="16">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="K56" s="24">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L56" s="25">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="M56" s="25">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="N56" s="26">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="43"/>
+      <c r="C57" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="E57" s="16">
+        <v>0.222</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0.216</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H57" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="I57" s="23">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J57" s="22">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K57" s="25">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L57" s="25">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M57" s="25">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N57" s="26">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="44"/>
+      <c r="C58" s="17">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.221</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0.222</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0.217</v>
+      </c>
+      <c r="G58" s="27">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H58" s="28">
+        <v>0.248</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J58" s="27">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K58" s="30">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="L58" s="31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M58" s="30">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N58" s="28">
+        <v>0.254</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="11">
+        <v>584</v>
+      </c>
+      <c r="D59" s="8">
+        <v>520</v>
+      </c>
+      <c r="E59" s="8">
+        <v>485</v>
+      </c>
+      <c r="F59" s="8">
+        <v>489</v>
+      </c>
+      <c r="G59" s="8">
+        <v>494</v>
+      </c>
+      <c r="H59" s="10">
+        <v>549</v>
+      </c>
+      <c r="I59" s="8">
+        <v>501</v>
+      </c>
+      <c r="J59" s="10">
+        <v>529</v>
+      </c>
+      <c r="K59" s="8">
+        <v>522</v>
+      </c>
+      <c r="L59" s="10">
+        <v>580</v>
+      </c>
+      <c r="M59" s="11">
+        <v>600</v>
+      </c>
+      <c r="N59" s="12">
+        <v>661</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="43"/>
+      <c r="C60" s="23">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D60" s="23">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E60" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="F60" s="23">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G60" s="24">
         <v>0.28599999999999998</v>
       </c>
-      <c r="F46" s="14">
-        <v>0.314</v>
-      </c>
-      <c r="G46" s="15">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="H46" s="16">
-        <v>0.36</v>
-      </c>
-      <c r="I46" s="15">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="J46" s="16">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="K46" s="16">
-        <v>0.371</v>
-      </c>
-      <c r="L46" s="14">
-        <v>0.311</v>
-      </c>
-      <c r="M46" s="16">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="N46" s="13">
+      <c r="H60" s="24">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="I60" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J60" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K60" s="32">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="L60" s="32">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="M60" s="33">
+        <v>0.377</v>
+      </c>
+      <c r="N60" s="33">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="43"/>
+      <c r="C61" s="23">
+        <v>0.245</v>
+      </c>
+      <c r="D61" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="E61" s="26">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F61" s="26">
+        <v>0.249</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H61" s="24">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="I61" s="26">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="J61" s="24">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K61" s="32">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="L61" s="32">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="M61" s="32">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N61" s="34">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="44"/>
+      <c r="C62" s="29">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D62" s="28">
+        <v>0.249</v>
+      </c>
+      <c r="E62" s="28">
+        <v>0.255</v>
+      </c>
+      <c r="F62" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="G62" s="35">
+        <v>0.26</v>
+      </c>
+      <c r="H62" s="35">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I62" s="28">
+        <v>0.254</v>
+      </c>
+      <c r="J62" s="35">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K62" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="L62" s="36">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="M62" s="37">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="N62" s="38">
+        <v>0.317</v>
+      </c>
+      <c r="O62" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="39">
+        <v>10</v>
+      </c>
+      <c r="D63" s="39">
+        <v>10</v>
+      </c>
+      <c r="E63" s="39">
+        <v>10</v>
+      </c>
+      <c r="F63" s="39">
+        <v>9</v>
+      </c>
+      <c r="G63" s="39">
+        <v>7</v>
+      </c>
+      <c r="H63" s="39">
+        <v>10</v>
+      </c>
+      <c r="I63" s="39">
+        <v>11</v>
+      </c>
+      <c r="J63" s="39">
+        <v>8</v>
+      </c>
+      <c r="K63" s="39">
+        <v>13</v>
+      </c>
+      <c r="L63" s="39">
+        <v>7</v>
+      </c>
+      <c r="M63" s="39">
+        <v>10</v>
+      </c>
+      <c r="N63" s="39">
+        <v>14</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="43"/>
+      <c r="C64" s="14">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="F64" s="15">
+        <v>0.219</v>
+      </c>
+      <c r="G64" s="15">
+        <v>0.218</v>
+      </c>
+      <c r="H64" s="15">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I64" s="15">
+        <v>0.216</v>
+      </c>
+      <c r="J64" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="K64" s="22">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L64" s="15">
+        <v>0.218</v>
+      </c>
+      <c r="M64" s="14">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="N64" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="43"/>
+      <c r="C65" s="14">
+        <v>0.19</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0.193</v>
+      </c>
+      <c r="E65" s="15">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H65" s="15">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="J65" s="22">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K65" s="22">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="L65" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M65" s="15">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="N65" s="14">
+        <v>0.189</v>
+      </c>
+      <c r="O65" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="44"/>
+      <c r="C66" s="17">
+        <v>0.193</v>
+      </c>
+      <c r="D66" s="17">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E66" s="18">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F66" s="19">
+        <v>0.218</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0.214</v>
+      </c>
+      <c r="H66" s="18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I66" s="19">
+        <v>0.215</v>
+      </c>
+      <c r="J66" s="27">
+        <v>0.23</v>
+      </c>
+      <c r="K66" s="29">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="L66" s="19">
+        <v>0.215</v>
+      </c>
+      <c r="M66" s="18">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="N66" s="17">
+        <v>0.192</v>
+      </c>
+      <c r="O66" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B67" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="39">
+        <v>11</v>
+      </c>
+      <c r="D67" s="39">
+        <v>7</v>
+      </c>
+      <c r="E67" s="39">
+        <v>10</v>
+      </c>
+      <c r="F67" s="39">
+        <v>8</v>
+      </c>
+      <c r="G67" s="39">
+        <v>11</v>
+      </c>
+      <c r="H67" s="39">
+        <v>10</v>
+      </c>
+      <c r="I67" s="39">
+        <v>10</v>
+      </c>
+      <c r="J67" s="39">
+        <v>7</v>
+      </c>
+      <c r="K67" s="39">
+        <v>12</v>
+      </c>
+      <c r="L67" s="39">
+        <v>11</v>
+      </c>
+      <c r="M67" s="39">
+        <v>7</v>
+      </c>
+      <c r="N67" s="39">
+        <v>8</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="43"/>
+      <c r="C68" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E68" s="16">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F68" s="16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G68" s="15">
+        <v>0.223</v>
+      </c>
+      <c r="H68" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="I68" s="16">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J68" s="22">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="K68" s="15">
+        <v>0.222</v>
+      </c>
+      <c r="L68" s="15">
+        <v>0.221</v>
+      </c>
+      <c r="M68" s="22">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="N68" s="15">
+        <v>0.223</v>
+      </c>
+      <c r="O68" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="43"/>
+      <c r="C69" s="14">
+        <v>0.189</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0.223</v>
+      </c>
+      <c r="F69" s="16">
+        <v>0.219</v>
+      </c>
+      <c r="G69" s="16">
+        <v>0.216</v>
+      </c>
+      <c r="H69" s="22">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="I69" s="16">
+        <v>0.223</v>
+      </c>
+      <c r="J69" s="22">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K69" s="16">
+        <v>0.216</v>
+      </c>
+      <c r="L69" s="16">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="M69" s="22">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="N69" s="16">
+        <v>0.214</v>
+      </c>
+      <c r="O69" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="44"/>
+      <c r="C70" s="17">
+        <v>0.191</v>
+      </c>
+      <c r="D70" s="18">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E70" s="27">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0.224</v>
+      </c>
+      <c r="G70" s="19">
+        <v>0.218</v>
+      </c>
+      <c r="H70" s="29">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="I70" s="27">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="J70" s="27">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="K70" s="19">
+        <v>0.219</v>
+      </c>
+      <c r="L70" s="19">
+        <v>0.216</v>
+      </c>
+      <c r="M70" s="29">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N70" s="19">
+        <v>0.216</v>
+      </c>
+      <c r="O70" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B71" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="39">
+        <v>13</v>
+      </c>
+      <c r="D71" s="39">
+        <v>13</v>
+      </c>
+      <c r="E71" s="39">
+        <v>9</v>
+      </c>
+      <c r="F71" s="39">
+        <v>15</v>
+      </c>
+      <c r="G71" s="39">
+        <v>14</v>
+      </c>
+      <c r="H71" s="39">
+        <v>13</v>
+      </c>
+      <c r="I71" s="39">
+        <v>12</v>
+      </c>
+      <c r="J71" s="39">
+        <v>17</v>
+      </c>
+      <c r="K71" s="39">
+        <v>12</v>
+      </c>
+      <c r="L71" s="39">
+        <v>14</v>
+      </c>
+      <c r="M71" s="39">
+        <v>12</v>
+      </c>
+      <c r="N71" s="39">
+        <v>12</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="43"/>
+      <c r="C72" s="26">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D72" s="26">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E72" s="26">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F72" s="23">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G72" s="23">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="H72" s="23">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="I72" s="24">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="J72" s="25">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K72" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="L72" s="23">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="M72" s="22">
+        <v>0.251</v>
+      </c>
+      <c r="N72" s="16">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="O72" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="43"/>
+      <c r="C73" s="26">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D73" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="E73" s="26">
+        <v>0.254</v>
+      </c>
+      <c r="F73" s="23">
+        <v>0.245</v>
+      </c>
+      <c r="G73" s="23">
+        <v>0.249</v>
+      </c>
+      <c r="H73" s="26">
+        <v>0.254</v>
+      </c>
+      <c r="I73" s="25">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="J73" s="40">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K73" s="23">
+        <v>0.247</v>
+      </c>
+      <c r="L73" s="26">
+        <v>0.249</v>
+      </c>
+      <c r="M73" s="23">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="N73" s="16">
+        <v>0.218</v>
+      </c>
+      <c r="O73" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" s="44"/>
+      <c r="C74" s="35">
+        <v>0.26</v>
+      </c>
+      <c r="D74" s="35">
+        <v>0.26</v>
+      </c>
+      <c r="E74" s="28">
         <v>0.25700000000000001</v>
       </c>
-      <c r="O46" s="12" t="s">
+      <c r="F74" s="29">
+        <v>0.246</v>
+      </c>
+      <c r="G74" s="28">
+        <v>0.251</v>
+      </c>
+      <c r="H74" s="28">
+        <v>0.254</v>
+      </c>
+      <c r="I74" s="30">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J74" s="31">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K74" s="29">
+        <v>0.246</v>
+      </c>
+      <c r="L74" s="28">
+        <v>0.249</v>
+      </c>
+      <c r="M74" s="29">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="N74" s="19">
+        <v>0.218</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B75" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="39">
+        <v>9</v>
+      </c>
+      <c r="D75" s="39">
+        <v>9</v>
+      </c>
+      <c r="E75" s="39">
+        <v>13</v>
+      </c>
+      <c r="F75" s="39">
+        <v>10</v>
+      </c>
+      <c r="G75" s="39">
+        <v>14</v>
+      </c>
+      <c r="H75" s="39">
+        <v>14</v>
+      </c>
+      <c r="I75" s="39">
+        <v>15</v>
+      </c>
+      <c r="J75" s="39">
+        <v>15</v>
+      </c>
+      <c r="K75" s="39">
+        <v>12</v>
+      </c>
+      <c r="L75" s="39">
+        <v>15</v>
+      </c>
+      <c r="M75" s="39">
+        <v>13</v>
+      </c>
+      <c r="N75" s="39">
+        <v>12</v>
+      </c>
+      <c r="O75" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" s="43"/>
+      <c r="C76" s="16">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D76" s="16">
+        <v>0.224</v>
+      </c>
+      <c r="E76" s="16">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F76" s="22">
+        <v>0.246</v>
+      </c>
+      <c r="G76" s="22">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H76" s="22">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="I76" s="22">
+        <v>0.252</v>
+      </c>
+      <c r="J76" s="23">
+        <v>0.254</v>
+      </c>
+      <c r="K76" s="40">
+        <v>0.309</v>
+      </c>
+      <c r="L76" s="40">
+        <v>0.312</v>
+      </c>
+      <c r="M76" s="25">
+        <v>0.307</v>
+      </c>
+      <c r="N76" s="41">
+        <v>0.33</v>
+      </c>
+      <c r="O76" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="35"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="12" t="s">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" s="43"/>
+      <c r="C77" s="15">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D77" s="16">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H77" s="16">
+        <v>0.224</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="J77" s="23">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="K77" s="25">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L77" s="25">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="M77" s="25">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N77" s="40">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="O77" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="8">
-        <v>453</v>
-      </c>
-      <c r="D49" s="8">
-        <v>419</v>
-      </c>
-      <c r="E49" s="7">
-        <v>395</v>
-      </c>
-      <c r="F49" s="7">
-        <v>372</v>
-      </c>
-      <c r="G49" s="10">
-        <v>688</v>
-      </c>
-      <c r="H49" s="8">
-        <v>441</v>
-      </c>
-      <c r="I49" s="10">
-        <v>703</v>
-      </c>
-      <c r="J49" s="9">
-        <v>665</v>
-      </c>
-      <c r="K49" s="19">
-        <v>941</v>
-      </c>
-      <c r="L49" s="20">
-        <v>562</v>
-      </c>
-      <c r="M49" s="9">
-        <v>660</v>
-      </c>
-      <c r="N49" s="10">
-        <v>714</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
-      <c r="C50" s="21">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="D50" s="22">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0.998</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H50" s="21">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="I50" s="21">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="J50" s="24">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="K50" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="L50" s="25">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="M50" s="21">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="N50" s="21">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="35"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="36"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="8">
-        <v>430</v>
-      </c>
-      <c r="D53" s="26">
-        <v>296</v>
-      </c>
-      <c r="E53" s="8">
-        <v>415</v>
-      </c>
-      <c r="F53" s="7">
-        <v>383</v>
-      </c>
-      <c r="G53" s="20">
-        <v>570</v>
-      </c>
-      <c r="H53" s="9">
-        <v>631</v>
-      </c>
-      <c r="I53" s="20">
-        <v>591</v>
-      </c>
-      <c r="J53" s="20">
-        <v>577</v>
-      </c>
-      <c r="K53" s="8">
-        <v>459</v>
-      </c>
-      <c r="L53" s="11">
-        <v>526</v>
-      </c>
-      <c r="M53" s="20">
-        <v>558</v>
-      </c>
-      <c r="N53" s="20">
-        <v>581</v>
-      </c>
-      <c r="O53" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="35"/>
-      <c r="C54" s="27">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="D54" s="27">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="E54" s="28">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="F54" s="23">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="G54" s="28">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="H54" s="24">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="I54" s="22">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="J54" s="25">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="K54" s="24">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="L54" s="21">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="M54" s="21">
-        <v>0.747</v>
-      </c>
-      <c r="N54" s="22">
-        <v>0.879</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="36"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="20">
-        <v>550</v>
-      </c>
-      <c r="D57" s="11">
-        <v>497</v>
-      </c>
-      <c r="E57" s="11">
-        <v>493</v>
-      </c>
-      <c r="F57" s="20">
-        <v>555</v>
-      </c>
-      <c r="G57" s="9">
-        <v>629</v>
-      </c>
-      <c r="H57" s="9">
-        <v>630</v>
-      </c>
-      <c r="I57" s="20">
-        <v>593</v>
-      </c>
-      <c r="J57" s="9">
-        <v>625</v>
-      </c>
-      <c r="K57" s="10">
-        <v>717</v>
-      </c>
-      <c r="L57" s="10">
-        <v>736</v>
-      </c>
-      <c r="M57" s="29">
-        <v>783</v>
-      </c>
-      <c r="N57" s="29">
-        <v>772</v>
-      </c>
-      <c r="O57" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="35"/>
-      <c r="C58" s="15">
-        <v>0.39</v>
-      </c>
-      <c r="D58" s="30">
-        <v>0.499</v>
-      </c>
-      <c r="E58" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="F58" s="28">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="G58" s="31">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="H58" s="15">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="I58" s="15">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="J58" s="15">
-        <v>0.433</v>
-      </c>
-      <c r="K58" s="30">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="L58" s="15">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="M58" s="30">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="N58" s="30">
-        <v>0.497</v>
-      </c>
-      <c r="O58" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="35"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="36"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="32">
-        <v>10</v>
-      </c>
-      <c r="D61" s="32">
-        <v>10</v>
-      </c>
-      <c r="E61" s="32">
-        <v>9</v>
-      </c>
-      <c r="F61" s="32">
-        <v>11</v>
-      </c>
-      <c r="G61" s="32">
-        <v>10</v>
-      </c>
-      <c r="H61" s="32">
-        <v>9</v>
-      </c>
-      <c r="I61" s="32">
-        <v>10</v>
-      </c>
-      <c r="J61" s="32">
-        <v>12</v>
-      </c>
-      <c r="K61" s="32">
-        <v>12</v>
-      </c>
-      <c r="L61" s="32">
-        <v>10</v>
-      </c>
-      <c r="M61" s="32">
-        <v>10</v>
-      </c>
-      <c r="N61" s="32">
-        <v>9</v>
-      </c>
-      <c r="O61" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D62" s="13">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="E62" s="13">
-        <v>0.221</v>
-      </c>
-      <c r="F62" s="13">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="G62" s="15">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="H62" s="30">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="I62" s="15">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="J62" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="K62" s="15">
-        <v>0.436</v>
-      </c>
-      <c r="L62" s="33">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="M62" s="33">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="N62" s="30">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="O62" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="35"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="36"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B65" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="32">
-        <v>10</v>
-      </c>
-      <c r="D65" s="32">
-        <v>9</v>
-      </c>
-      <c r="E65" s="32">
-        <v>10</v>
-      </c>
-      <c r="F65" s="32">
-        <v>8</v>
-      </c>
-      <c r="G65" s="32">
-        <v>12</v>
-      </c>
-      <c r="H65" s="32">
-        <v>8</v>
-      </c>
-      <c r="I65" s="32">
-        <v>9</v>
-      </c>
-      <c r="J65" s="32">
-        <v>9</v>
-      </c>
-      <c r="K65" s="32">
-        <v>9</v>
-      </c>
-      <c r="L65" s="32">
-        <v>13</v>
-      </c>
-      <c r="M65" s="32">
-        <v>12</v>
-      </c>
-      <c r="N65" s="32">
-        <v>14</v>
-      </c>
-      <c r="O65" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="35"/>
-      <c r="C66" s="31">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="D66" s="31">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="E66" s="13">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="44"/>
+      <c r="C78" s="18">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F66" s="13">
-        <v>0.216</v>
-      </c>
-      <c r="G66" s="13">
-        <v>0.224</v>
-      </c>
-      <c r="H66" s="13">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="I66" s="15">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="J66" s="25">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="K66" s="31">
-        <v>0.61</v>
-      </c>
-      <c r="L66" s="24">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="M66" s="15">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="N66" s="31">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="O66" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="35"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="36"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B69" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="32">
-        <v>11</v>
-      </c>
-      <c r="D69" s="32">
-        <v>12</v>
-      </c>
-      <c r="E69" s="32">
-        <v>12</v>
-      </c>
-      <c r="F69" s="32">
-        <v>11</v>
-      </c>
-      <c r="G69" s="32">
-        <v>12</v>
-      </c>
-      <c r="H69" s="32">
-        <v>15</v>
-      </c>
-      <c r="I69" s="32">
-        <v>12</v>
-      </c>
-      <c r="J69" s="32">
-        <v>11</v>
-      </c>
-      <c r="K69" s="32">
-        <v>12</v>
-      </c>
-      <c r="L69" s="32">
-        <v>14</v>
-      </c>
-      <c r="M69" s="32">
-        <v>10</v>
-      </c>
-      <c r="N69" s="32">
-        <v>12</v>
-      </c>
-      <c r="O69" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="35"/>
-      <c r="C70" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D70" s="16">
-        <v>0.32</v>
-      </c>
-      <c r="E70" s="33">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="F70" s="30">
-        <v>0.443</v>
-      </c>
-      <c r="G70" s="30">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="H70" s="25">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="I70" s="33">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="J70" s="33">
-        <v>0.505</v>
-      </c>
-      <c r="K70" s="16">
-        <v>0.376</v>
-      </c>
-      <c r="L70" s="24">
-        <v>0.71</v>
-      </c>
-      <c r="M70" s="14">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="N70" s="14">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="O70" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="35"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="36"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B73" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="32">
-        <v>16</v>
-      </c>
-      <c r="D73" s="32">
-        <v>10</v>
-      </c>
-      <c r="E73" s="32">
-        <v>14</v>
-      </c>
-      <c r="F73" s="32">
-        <v>14</v>
-      </c>
-      <c r="G73" s="32">
-        <v>17</v>
-      </c>
-      <c r="H73" s="32">
-        <v>12</v>
-      </c>
-      <c r="I73" s="32">
-        <v>14</v>
-      </c>
-      <c r="J73" s="32">
-        <v>12</v>
-      </c>
-      <c r="K73" s="32">
-        <v>13</v>
-      </c>
-      <c r="L73" s="32">
-        <v>11</v>
-      </c>
-      <c r="M73" s="32">
-        <v>14</v>
-      </c>
-      <c r="N73" s="32">
-        <v>13</v>
-      </c>
-      <c r="O73" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="35"/>
-      <c r="C74" s="13">
-        <v>0.221</v>
-      </c>
-      <c r="D74" s="13">
-        <v>0.221</v>
-      </c>
-      <c r="E74" s="25">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="F74" s="15">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="G74" s="13">
-        <v>0.255</v>
-      </c>
-      <c r="H74" s="13">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="I74" s="13">
-        <v>0.253</v>
-      </c>
-      <c r="J74" s="13">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="K74" s="13">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="L74" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="M74" s="13">
-        <v>0.221</v>
-      </c>
-      <c r="N74" s="14">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="O74" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="36"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="12" t="s">
+      <c r="D78" s="19">
+        <v>0.214</v>
+      </c>
+      <c r="E78" s="18">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F78" s="27">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G78" s="27">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H78" s="19">
+        <v>0.222</v>
+      </c>
+      <c r="I78" s="27">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="J78" s="29">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="K78" s="30">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L78" s="30">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M78" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="N78" s="31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O78" s="13" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2202,1678 +2497,1678 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R48" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="37" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="37"/>
+    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="2">
         <v>45625</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="3">
         <v>0.54215277777777782</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="41"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="37" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="41"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="1">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="43">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7">
         <v>1</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="7">
         <v>2</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="7">
         <v>3</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="7">
         <v>4</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="7">
         <v>5</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="7">
         <v>6</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="7">
         <v>7</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="7">
         <v>8</v>
       </c>
-      <c r="K46" s="43">
+      <c r="K46" s="7">
         <v>9</v>
       </c>
-      <c r="L46" s="43">
+      <c r="L46" s="7">
         <v>10</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="7">
         <v>11</v>
       </c>
-      <c r="N46" s="43">
+      <c r="N46" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B47" s="44" t="s">
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="8">
         <v>491</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="9">
         <v>459</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="9">
         <v>459</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="8">
         <v>468</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="10">
         <v>556</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="11">
         <v>589</v>
       </c>
-      <c r="I47" s="45">
+      <c r="I47" s="8">
         <v>524</v>
       </c>
-      <c r="J47" s="48">
+      <c r="J47" s="11">
         <v>599</v>
       </c>
-      <c r="K47" s="47">
+      <c r="K47" s="10">
         <v>565</v>
       </c>
-      <c r="L47" s="48">
+      <c r="L47" s="11">
         <v>624</v>
       </c>
-      <c r="M47" s="49">
+      <c r="M47" s="12">
         <v>679</v>
       </c>
-      <c r="N47" s="48">
+      <c r="N47" s="11">
         <v>594</v>
       </c>
-      <c r="O47" s="50" t="s">
+      <c r="O47" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="51"/>
-      <c r="C48" s="52">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="43"/>
+      <c r="C48" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="14">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="14">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F48" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G48" s="52">
+      <c r="G48" s="14">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H48" s="52">
+      <c r="H48" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I48" s="15">
         <v>0.222</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J48" s="15">
         <v>0.219</v>
       </c>
-      <c r="K48" s="52">
+      <c r="K48" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="14">
         <v>0.20599999999999999</v>
       </c>
-      <c r="M48" s="53">
+      <c r="M48" s="15">
         <v>0.214</v>
       </c>
-      <c r="N48" s="52">
+      <c r="N48" s="14">
         <v>0.20100000000000001</v>
       </c>
-      <c r="O48" s="50" t="s">
+      <c r="O48" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="51"/>
-      <c r="C49" s="53">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="43"/>
+      <c r="C49" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="14">
         <v>0.191</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G49" s="15">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="I49" s="54">
+      <c r="I49" s="16">
         <v>0.216</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K49" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="14">
         <v>0.2</v>
       </c>
-      <c r="M49" s="53">
+      <c r="M49" s="15">
         <v>0.20899999999999999</v>
       </c>
-      <c r="N49" s="52">
+      <c r="N49" s="14">
         <v>0.19400000000000001</v>
       </c>
-      <c r="O49" s="50" t="s">
+      <c r="O49" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="55"/>
-      <c r="C50" s="56">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="44"/>
+      <c r="C50" s="17">
         <v>0.20200000000000001</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="18">
         <v>0.20300000000000001</v>
       </c>
-      <c r="E50" s="56">
+      <c r="E50" s="17">
         <v>0.193</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="18">
         <v>0.20599999999999999</v>
       </c>
-      <c r="G50" s="57">
+      <c r="G50" s="18">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H50" s="57">
+      <c r="H50" s="18">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I50" s="58">
+      <c r="I50" s="19">
         <v>0.217</v>
       </c>
-      <c r="J50" s="57">
+      <c r="J50" s="18">
         <v>0.21299999999999999</v>
       </c>
-      <c r="K50" s="56">
+      <c r="K50" s="17">
         <v>0.20200000000000001</v>
       </c>
-      <c r="L50" s="56">
+      <c r="L50" s="17">
         <v>0.20200000000000001</v>
       </c>
-      <c r="M50" s="57">
+      <c r="M50" s="18">
         <v>0.21</v>
       </c>
-      <c r="N50" s="56">
+      <c r="N50" s="17">
         <v>0.19500000000000001</v>
       </c>
-      <c r="O50" s="50" t="s">
+      <c r="O50" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="44" t="s">
+    <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="8">
         <v>482</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="9">
         <v>449</v>
       </c>
-      <c r="E51" s="59">
+      <c r="E51" s="20">
         <v>389</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="20">
         <v>381</v>
       </c>
-      <c r="G51" s="47">
+      <c r="G51" s="10">
         <v>537</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="9">
         <v>411</v>
       </c>
-      <c r="I51" s="47">
+      <c r="I51" s="10">
         <v>538</v>
       </c>
-      <c r="J51" s="45">
+      <c r="J51" s="8">
         <v>523</v>
       </c>
-      <c r="K51" s="60">
+      <c r="K51" s="21">
         <v>812</v>
       </c>
-      <c r="L51" s="47">
+      <c r="L51" s="10">
         <v>580</v>
       </c>
-      <c r="M51" s="47">
+      <c r="M51" s="10">
         <v>538</v>
       </c>
-      <c r="N51" s="48">
+      <c r="N51" s="11">
         <v>620</v>
       </c>
-      <c r="O51" s="50" t="s">
+      <c r="O51" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="51"/>
-      <c r="C52" s="52">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="43"/>
+      <c r="C52" s="14">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="15">
         <v>0.223</v>
       </c>
-      <c r="E52" s="54">
+      <c r="E52" s="16">
         <v>0.224</v>
       </c>
-      <c r="F52" s="53">
+      <c r="F52" s="15">
         <v>0.217</v>
       </c>
-      <c r="G52" s="54">
+      <c r="G52" s="16">
         <v>0.224</v>
       </c>
-      <c r="H52" s="53">
+      <c r="H52" s="15">
         <v>0.214</v>
       </c>
-      <c r="I52" s="53">
+      <c r="I52" s="15">
         <v>0.214</v>
       </c>
-      <c r="J52" s="54">
+      <c r="J52" s="16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K52" s="53">
+      <c r="K52" s="15">
         <v>0.221</v>
       </c>
-      <c r="L52" s="53">
+      <c r="L52" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="M52" s="53">
+      <c r="M52" s="15">
         <v>0.214</v>
       </c>
-      <c r="N52" s="52">
+      <c r="N52" s="14">
         <v>0.20599999999999999</v>
       </c>
-      <c r="O52" s="50" t="s">
+      <c r="O52" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="51"/>
-      <c r="C53" s="52">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="43"/>
+      <c r="C53" s="14">
         <v>0.19400000000000001</v>
       </c>
-      <c r="D53" s="54">
+      <c r="D53" s="16">
         <v>0.216</v>
       </c>
-      <c r="E53" s="54">
+      <c r="E53" s="16">
         <v>0.217</v>
       </c>
-      <c r="F53" s="53">
+      <c r="F53" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G53" s="54">
+      <c r="G53" s="16">
         <v>0.218</v>
       </c>
-      <c r="H53" s="53">
+      <c r="H53" s="15">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="15">
         <v>0.20599999999999999</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="16">
         <v>0.218</v>
       </c>
-      <c r="K53" s="54">
+      <c r="K53" s="16">
         <v>0.21299999999999999</v>
       </c>
-      <c r="L53" s="53">
+      <c r="L53" s="15">
         <v>0.20300000000000001</v>
       </c>
-      <c r="M53" s="53">
+      <c r="M53" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="N53" s="52">
+      <c r="N53" s="14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="O53" s="50" t="s">
+      <c r="O53" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="55"/>
-      <c r="C54" s="56">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="44"/>
+      <c r="C54" s="17">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D54" s="58">
+      <c r="D54" s="19">
         <v>0.217</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="19">
         <v>0.218</v>
       </c>
-      <c r="F54" s="57">
+      <c r="F54" s="18">
         <v>0.21199999999999999</v>
       </c>
-      <c r="G54" s="58">
+      <c r="G54" s="19">
         <v>0.221</v>
       </c>
-      <c r="H54" s="57">
+      <c r="H54" s="18">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I54" s="57">
+      <c r="I54" s="18">
         <v>0.20699999999999999</v>
       </c>
-      <c r="J54" s="58">
+      <c r="J54" s="19">
         <v>0.22</v>
       </c>
-      <c r="K54" s="58">
+      <c r="K54" s="19">
         <v>0.216</v>
       </c>
-      <c r="L54" s="57">
+      <c r="L54" s="18">
         <v>0.20300000000000001</v>
       </c>
-      <c r="M54" s="57">
+      <c r="M54" s="18">
         <v>0.20599999999999999</v>
       </c>
-      <c r="N54" s="56">
+      <c r="N54" s="17">
         <v>0.19900000000000001</v>
       </c>
-      <c r="O54" s="50" t="s">
+      <c r="O54" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="44" t="s">
+    <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="8">
         <v>506</v>
       </c>
-      <c r="D55" s="59">
+      <c r="D55" s="20">
         <v>375</v>
       </c>
-      <c r="E55" s="59">
+      <c r="E55" s="20">
         <v>394</v>
       </c>
-      <c r="F55" s="59">
+      <c r="F55" s="20">
         <v>369</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="9">
         <v>456</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="10">
         <v>537</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="8">
         <v>484</v>
       </c>
-      <c r="J55" s="45">
+      <c r="J55" s="8">
         <v>489</v>
       </c>
-      <c r="K55" s="45">
+      <c r="K55" s="8">
         <v>481</v>
       </c>
-      <c r="L55" s="47">
+      <c r="L55" s="10">
         <v>538</v>
       </c>
-      <c r="M55" s="48">
+      <c r="M55" s="11">
         <v>609</v>
       </c>
-      <c r="N55" s="49">
+      <c r="N55" s="12">
         <v>648</v>
       </c>
-      <c r="O55" s="50" t="s">
+      <c r="O55" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="51"/>
-      <c r="C56" s="52">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="43"/>
+      <c r="C56" s="14">
         <v>0.20899999999999999</v>
       </c>
-      <c r="D56" s="54">
+      <c r="D56" s="16">
         <v>0.23</v>
       </c>
-      <c r="E56" s="54">
+      <c r="E56" s="16">
         <v>0.23300000000000001</v>
       </c>
-      <c r="F56" s="54">
+      <c r="F56" s="16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G56" s="61">
+      <c r="G56" s="22">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H56" s="62">
+      <c r="H56" s="23">
         <v>0.26100000000000001</v>
       </c>
-      <c r="I56" s="61">
+      <c r="I56" s="22">
         <v>0.25</v>
       </c>
-      <c r="J56" s="54">
+      <c r="J56" s="16">
         <v>0.23699999999999999</v>
       </c>
-      <c r="K56" s="63">
+      <c r="K56" s="24">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L56" s="64">
+      <c r="L56" s="25">
         <v>0.29799999999999999</v>
       </c>
-      <c r="M56" s="64">
+      <c r="M56" s="25">
         <v>0.29599999999999999</v>
       </c>
-      <c r="N56" s="65">
+      <c r="N56" s="26">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O56" s="50" t="s">
+      <c r="O56" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="51"/>
-      <c r="C57" s="52">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="43"/>
+      <c r="C57" s="14">
         <v>0.2</v>
       </c>
-      <c r="D57" s="54">
+      <c r="D57" s="16">
         <v>0.22</v>
       </c>
-      <c r="E57" s="54">
+      <c r="E57" s="16">
         <v>0.222</v>
       </c>
-      <c r="F57" s="54">
+      <c r="F57" s="16">
         <v>0.216</v>
       </c>
-      <c r="G57" s="61">
+      <c r="G57" s="22">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="26">
         <v>0.25</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I57" s="23">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J57" s="61">
+      <c r="J57" s="22">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K57" s="64">
+      <c r="K57" s="25">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L57" s="64">
+      <c r="L57" s="25">
         <v>0.28299999999999997</v>
       </c>
-      <c r="M57" s="64">
+      <c r="M57" s="25">
         <v>0.27800000000000002</v>
       </c>
-      <c r="N57" s="65">
+      <c r="N57" s="26">
         <v>0.25800000000000001</v>
       </c>
-      <c r="O57" s="50" t="s">
+      <c r="O57" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="55"/>
-      <c r="C58" s="56">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="44"/>
+      <c r="C58" s="17">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D58" s="58">
+      <c r="D58" s="19">
         <v>0.221</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="19">
         <v>0.222</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="19">
         <v>0.217</v>
       </c>
-      <c r="G58" s="66">
+      <c r="G58" s="27">
         <v>0.22800000000000001</v>
       </c>
-      <c r="H58" s="67">
+      <c r="H58" s="28">
         <v>0.248</v>
       </c>
-      <c r="I58" s="68">
+      <c r="I58" s="29">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J58" s="66">
+      <c r="J58" s="27">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K58" s="69">
+      <c r="K58" s="30">
         <v>0.28100000000000003</v>
       </c>
-      <c r="L58" s="70">
+      <c r="L58" s="31">
         <v>0.28299999999999997</v>
       </c>
-      <c r="M58" s="69">
+      <c r="M58" s="30">
         <v>0.27800000000000002</v>
       </c>
-      <c r="N58" s="67">
+      <c r="N58" s="28">
         <v>0.254</v>
       </c>
-      <c r="O58" s="50" t="s">
+      <c r="O58" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="44" t="s">
+    <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="11">
         <v>584</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="8">
         <v>520</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="8">
         <v>485</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="8">
         <v>489</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="8">
         <v>494</v>
       </c>
-      <c r="H59" s="47">
+      <c r="H59" s="10">
         <v>549</v>
       </c>
-      <c r="I59" s="45">
+      <c r="I59" s="8">
         <v>501</v>
       </c>
-      <c r="J59" s="47">
+      <c r="J59" s="10">
         <v>529</v>
       </c>
-      <c r="K59" s="45">
+      <c r="K59" s="8">
         <v>522</v>
       </c>
-      <c r="L59" s="47">
+      <c r="L59" s="10">
         <v>580</v>
       </c>
-      <c r="M59" s="48">
+      <c r="M59" s="11">
         <v>600</v>
       </c>
-      <c r="N59" s="49">
+      <c r="N59" s="12">
         <v>661</v>
       </c>
-      <c r="O59" s="50" t="s">
+      <c r="O59" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="51"/>
-      <c r="C60" s="62">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="43"/>
+      <c r="C60" s="23">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="23">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E60" s="65">
+      <c r="E60" s="26">
         <v>0.27</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="23">
         <v>0.26500000000000001</v>
       </c>
-      <c r="G60" s="63">
+      <c r="G60" s="24">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H60" s="63">
+      <c r="H60" s="24">
         <v>0.28399999999999997</v>
       </c>
-      <c r="I60" s="63">
+      <c r="I60" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J60" s="63">
+      <c r="J60" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K60" s="71">
+      <c r="K60" s="32">
         <v>0.39200000000000002</v>
       </c>
-      <c r="L60" s="71">
+      <c r="L60" s="32">
         <v>0.38600000000000001</v>
       </c>
-      <c r="M60" s="72">
+      <c r="M60" s="33">
         <v>0.377</v>
       </c>
-      <c r="N60" s="72">
+      <c r="N60" s="33">
         <v>0.36799999999999999</v>
       </c>
-      <c r="O60" s="50" t="s">
+      <c r="O60" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="51"/>
-      <c r="C61" s="62">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="43"/>
+      <c r="C61" s="23">
         <v>0.245</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="26">
         <v>0.25</v>
       </c>
-      <c r="E61" s="65">
+      <c r="E61" s="26">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F61" s="65">
+      <c r="F61" s="26">
         <v>0.249</v>
       </c>
-      <c r="G61" s="63">
+      <c r="G61" s="24">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H61" s="63">
+      <c r="H61" s="24">
         <v>0.26400000000000001</v>
       </c>
-      <c r="I61" s="65">
+      <c r="I61" s="26">
         <v>0.25900000000000001</v>
       </c>
-      <c r="J61" s="63">
+      <c r="J61" s="24">
         <v>0.26800000000000002</v>
       </c>
-      <c r="K61" s="71">
+      <c r="K61" s="32">
         <v>0.35699999999999998</v>
       </c>
-      <c r="L61" s="71">
+      <c r="L61" s="32">
         <v>0.35399999999999998</v>
       </c>
-      <c r="M61" s="71">
+      <c r="M61" s="32">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N61" s="73">
+      <c r="N61" s="34">
         <v>0.32900000000000001</v>
       </c>
-      <c r="O61" s="50" t="s">
+      <c r="O61" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="55"/>
-      <c r="C62" s="68">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="44"/>
+      <c r="C62" s="29">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D62" s="67">
+      <c r="D62" s="28">
         <v>0.249</v>
       </c>
-      <c r="E62" s="67">
+      <c r="E62" s="28">
         <v>0.255</v>
       </c>
-      <c r="F62" s="67">
+      <c r="F62" s="28">
         <v>0.25</v>
       </c>
-      <c r="G62" s="74">
+      <c r="G62" s="35">
         <v>0.26</v>
       </c>
-      <c r="H62" s="74">
+      <c r="H62" s="35">
         <v>0.25900000000000001</v>
       </c>
-      <c r="I62" s="67">
+      <c r="I62" s="28">
         <v>0.254</v>
       </c>
-      <c r="J62" s="74">
+      <c r="J62" s="35">
         <v>0.26500000000000001</v>
       </c>
-      <c r="K62" s="75">
+      <c r="K62" s="36">
         <v>0.35</v>
       </c>
-      <c r="L62" s="75">
+      <c r="L62" s="36">
         <v>0.34499999999999997</v>
       </c>
-      <c r="M62" s="76">
+      <c r="M62" s="37">
         <v>0.33600000000000002</v>
       </c>
-      <c r="N62" s="77">
+      <c r="N62" s="38">
         <v>0.317</v>
       </c>
-      <c r="O62" s="50" t="s">
+      <c r="O62" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="44" t="s">
+    <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="78">
+      <c r="C63" s="39">
         <v>10</v>
       </c>
-      <c r="D63" s="78">
+      <c r="D63" s="39">
         <v>10</v>
       </c>
-      <c r="E63" s="78">
+      <c r="E63" s="39">
         <v>10</v>
       </c>
-      <c r="F63" s="78">
+      <c r="F63" s="39">
         <v>9</v>
       </c>
-      <c r="G63" s="78">
+      <c r="G63" s="39">
         <v>7</v>
       </c>
-      <c r="H63" s="78">
+      <c r="H63" s="39">
         <v>10</v>
       </c>
-      <c r="I63" s="78">
+      <c r="I63" s="39">
         <v>11</v>
       </c>
-      <c r="J63" s="78">
+      <c r="J63" s="39">
         <v>8</v>
       </c>
-      <c r="K63" s="78">
+      <c r="K63" s="39">
         <v>13</v>
       </c>
-      <c r="L63" s="78">
+      <c r="L63" s="39">
         <v>7</v>
       </c>
-      <c r="M63" s="78">
+      <c r="M63" s="39">
         <v>10</v>
       </c>
-      <c r="N63" s="78">
+      <c r="N63" s="39">
         <v>14</v>
       </c>
-      <c r="O63" s="50" t="s">
+      <c r="O63" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="51"/>
-      <c r="C64" s="52">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="43"/>
+      <c r="C64" s="14">
         <v>0.19700000000000001</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="E64" s="53">
+      <c r="E64" s="15">
         <v>0.21</v>
       </c>
-      <c r="F64" s="53">
+      <c r="F64" s="15">
         <v>0.219</v>
       </c>
-      <c r="G64" s="53">
+      <c r="G64" s="15">
         <v>0.218</v>
       </c>
-      <c r="H64" s="53">
+      <c r="H64" s="15">
         <v>0.21299999999999999</v>
       </c>
-      <c r="I64" s="53">
+      <c r="I64" s="15">
         <v>0.216</v>
       </c>
-      <c r="J64" s="54">
+      <c r="J64" s="16">
         <v>0.23</v>
       </c>
-      <c r="K64" s="61">
+      <c r="K64" s="22">
         <v>0.24399999999999999</v>
       </c>
-      <c r="L64" s="53">
+      <c r="L64" s="15">
         <v>0.218</v>
       </c>
-      <c r="M64" s="52">
+      <c r="M64" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="N64" s="52">
+      <c r="N64" s="14">
         <v>0.19600000000000001</v>
       </c>
-      <c r="O64" s="50" t="s">
+      <c r="O64" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="51"/>
-      <c r="C65" s="52">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="43"/>
+      <c r="C65" s="14">
         <v>0.19</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="14">
         <v>0.193</v>
       </c>
-      <c r="E65" s="53">
+      <c r="E65" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F65" s="53">
+      <c r="F65" s="15">
         <v>0.21299999999999999</v>
       </c>
-      <c r="G65" s="53">
+      <c r="G65" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H65" s="53">
+      <c r="H65" s="15">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I65" s="53">
+      <c r="I65" s="15">
         <v>0.21</v>
       </c>
-      <c r="J65" s="61">
+      <c r="J65" s="22">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K65" s="61">
+      <c r="K65" s="22">
         <v>0.23599999999999999</v>
       </c>
-      <c r="L65" s="53">
+      <c r="L65" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="M65" s="53">
+      <c r="M65" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="N65" s="52">
+      <c r="N65" s="14">
         <v>0.189</v>
       </c>
-      <c r="O65" s="50" t="s">
+      <c r="O65" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="55"/>
-      <c r="C66" s="56">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="44"/>
+      <c r="C66" s="17">
         <v>0.193</v>
       </c>
-      <c r="D66" s="56">
+      <c r="D66" s="17">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E66" s="57">
+      <c r="E66" s="18">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F66" s="58">
+      <c r="F66" s="19">
         <v>0.218</v>
       </c>
-      <c r="G66" s="58">
+      <c r="G66" s="19">
         <v>0.214</v>
       </c>
-      <c r="H66" s="57">
+      <c r="H66" s="18">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I66" s="58">
+      <c r="I66" s="19">
         <v>0.215</v>
       </c>
-      <c r="J66" s="66">
+      <c r="J66" s="27">
         <v>0.23</v>
       </c>
-      <c r="K66" s="68">
+      <c r="K66" s="29">
         <v>0.24099999999999999</v>
       </c>
-      <c r="L66" s="58">
+      <c r="L66" s="19">
         <v>0.215</v>
       </c>
-      <c r="M66" s="57">
+      <c r="M66" s="18">
         <v>0.20399999999999999</v>
       </c>
-      <c r="N66" s="56">
+      <c r="N66" s="17">
         <v>0.192</v>
       </c>
-      <c r="O66" s="50" t="s">
+      <c r="O66" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B67" s="44" t="s">
+    <row r="67" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B67" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="78">
+      <c r="C67" s="39">
         <v>11</v>
       </c>
-      <c r="D67" s="78">
+      <c r="D67" s="39">
         <v>7</v>
       </c>
-      <c r="E67" s="78">
+      <c r="E67" s="39">
         <v>10</v>
       </c>
-      <c r="F67" s="78">
+      <c r="F67" s="39">
         <v>8</v>
       </c>
-      <c r="G67" s="78">
+      <c r="G67" s="39">
         <v>11</v>
       </c>
-      <c r="H67" s="78">
+      <c r="H67" s="39">
         <v>10</v>
       </c>
-      <c r="I67" s="78">
+      <c r="I67" s="39">
         <v>10</v>
       </c>
-      <c r="J67" s="78">
+      <c r="J67" s="39">
         <v>7</v>
       </c>
-      <c r="K67" s="78">
+      <c r="K67" s="39">
         <v>12</v>
       </c>
-      <c r="L67" s="78">
+      <c r="L67" s="39">
         <v>11</v>
       </c>
-      <c r="M67" s="78">
+      <c r="M67" s="39">
         <v>7</v>
       </c>
-      <c r="N67" s="78">
+      <c r="N67" s="39">
         <v>8</v>
       </c>
-      <c r="O67" s="50" t="s">
+      <c r="O67" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="51"/>
-      <c r="C68" s="52">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="43"/>
+      <c r="C68" s="14">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="14">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E68" s="54">
+      <c r="E68" s="16">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F68" s="54">
+      <c r="F68" s="16">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G68" s="53">
+      <c r="G68" s="15">
         <v>0.223</v>
       </c>
-      <c r="H68" s="61">
+      <c r="H68" s="22">
         <v>0.24</v>
       </c>
-      <c r="I68" s="54">
+      <c r="I68" s="16">
         <v>0.23100000000000001</v>
       </c>
-      <c r="J68" s="61">
+      <c r="J68" s="22">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K68" s="53">
+      <c r="K68" s="15">
         <v>0.222</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="15">
         <v>0.221</v>
       </c>
-      <c r="M68" s="61">
+      <c r="M68" s="22">
         <v>0.24199999999999999</v>
       </c>
-      <c r="N68" s="53">
+      <c r="N68" s="15">
         <v>0.223</v>
       </c>
-      <c r="O68" s="50" t="s">
+      <c r="O68" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="51"/>
-      <c r="C69" s="52">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="43"/>
+      <c r="C69" s="14">
         <v>0.189</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D69" s="14">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E69" s="54">
+      <c r="E69" s="16">
         <v>0.223</v>
       </c>
-      <c r="F69" s="54">
+      <c r="F69" s="16">
         <v>0.219</v>
       </c>
-      <c r="G69" s="54">
+      <c r="G69" s="16">
         <v>0.216</v>
       </c>
-      <c r="H69" s="61">
+      <c r="H69" s="22">
         <v>0.23300000000000001</v>
       </c>
-      <c r="I69" s="54">
+      <c r="I69" s="16">
         <v>0.223</v>
       </c>
-      <c r="J69" s="61">
+      <c r="J69" s="22">
         <v>0.23499999999999999</v>
       </c>
-      <c r="K69" s="54">
+      <c r="K69" s="16">
         <v>0.216</v>
       </c>
-      <c r="L69" s="54">
+      <c r="L69" s="16">
         <v>0.21299999999999999</v>
       </c>
-      <c r="M69" s="61">
+      <c r="M69" s="22">
         <v>0.23300000000000001</v>
       </c>
-      <c r="N69" s="54">
+      <c r="N69" s="16">
         <v>0.214</v>
       </c>
-      <c r="O69" s="50" t="s">
+      <c r="O69" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="55"/>
-      <c r="C70" s="56">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="44"/>
+      <c r="C70" s="17">
         <v>0.191</v>
       </c>
-      <c r="D70" s="57">
+      <c r="D70" s="18">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E70" s="66">
+      <c r="E70" s="27">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="19">
         <v>0.224</v>
       </c>
-      <c r="G70" s="58">
+      <c r="G70" s="19">
         <v>0.218</v>
       </c>
-      <c r="H70" s="68">
+      <c r="H70" s="29">
         <v>0.23599999999999999</v>
       </c>
-      <c r="I70" s="66">
+      <c r="I70" s="27">
         <v>0.22600000000000001</v>
       </c>
-      <c r="J70" s="66">
+      <c r="J70" s="27">
         <v>0.23599999999999999</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="19">
         <v>0.219</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="19">
         <v>0.216</v>
       </c>
-      <c r="M70" s="68">
+      <c r="M70" s="29">
         <v>0.23599999999999999</v>
       </c>
-      <c r="N70" s="58">
+      <c r="N70" s="19">
         <v>0.216</v>
       </c>
-      <c r="O70" s="50" t="s">
+      <c r="O70" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B71" s="44" t="s">
+    <row r="71" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B71" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="78">
+      <c r="C71" s="39">
         <v>13</v>
       </c>
-      <c r="D71" s="78">
+      <c r="D71" s="39">
         <v>13</v>
       </c>
-      <c r="E71" s="78">
+      <c r="E71" s="39">
         <v>9</v>
       </c>
-      <c r="F71" s="78">
+      <c r="F71" s="39">
         <v>15</v>
       </c>
-      <c r="G71" s="78">
+      <c r="G71" s="39">
         <v>14</v>
       </c>
-      <c r="H71" s="78">
+      <c r="H71" s="39">
         <v>13</v>
       </c>
-      <c r="I71" s="78">
+      <c r="I71" s="39">
         <v>12</v>
       </c>
-      <c r="J71" s="78">
+      <c r="J71" s="39">
         <v>17</v>
       </c>
-      <c r="K71" s="78">
+      <c r="K71" s="39">
         <v>12</v>
       </c>
-      <c r="L71" s="78">
+      <c r="L71" s="39">
         <v>14</v>
       </c>
-      <c r="M71" s="78">
+      <c r="M71" s="39">
         <v>12</v>
       </c>
-      <c r="N71" s="78">
+      <c r="N71" s="39">
         <v>12</v>
       </c>
-      <c r="O71" s="50" t="s">
+      <c r="O71" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="51"/>
-      <c r="C72" s="65">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="43"/>
+      <c r="C72" s="26">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D72" s="65">
+      <c r="D72" s="26">
         <v>0.27500000000000002</v>
       </c>
-      <c r="E72" s="65">
+      <c r="E72" s="26">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F72" s="62">
+      <c r="F72" s="23">
         <v>0.25600000000000001</v>
       </c>
-      <c r="G72" s="62">
+      <c r="G72" s="23">
         <v>0.26100000000000001</v>
       </c>
-      <c r="H72" s="62">
+      <c r="H72" s="23">
         <v>0.26200000000000001</v>
       </c>
-      <c r="I72" s="63">
+      <c r="I72" s="24">
         <v>0.28899999999999998</v>
       </c>
-      <c r="J72" s="64">
+      <c r="J72" s="25">
         <v>0.29899999999999999</v>
       </c>
-      <c r="K72" s="62">
+      <c r="K72" s="23">
         <v>0.26</v>
       </c>
-      <c r="L72" s="62">
+      <c r="L72" s="23">
         <v>0.26300000000000001</v>
       </c>
-      <c r="M72" s="61">
+      <c r="M72" s="22">
         <v>0.251</v>
       </c>
-      <c r="N72" s="54">
+      <c r="N72" s="16">
         <v>0.23300000000000001</v>
       </c>
-      <c r="O72" s="50" t="s">
+      <c r="O72" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="51"/>
-      <c r="C73" s="65">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="43"/>
+      <c r="C73" s="26">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D73" s="65">
+      <c r="D73" s="26">
         <v>0.26</v>
       </c>
-      <c r="E73" s="65">
+      <c r="E73" s="26">
         <v>0.254</v>
       </c>
-      <c r="F73" s="62">
+      <c r="F73" s="23">
         <v>0.245</v>
       </c>
-      <c r="G73" s="62">
+      <c r="G73" s="23">
         <v>0.249</v>
       </c>
-      <c r="H73" s="65">
+      <c r="H73" s="26">
         <v>0.254</v>
       </c>
-      <c r="I73" s="64">
+      <c r="I73" s="25">
         <v>0.27400000000000002</v>
       </c>
-      <c r="J73" s="79">
+      <c r="J73" s="40">
         <v>0.28599999999999998</v>
       </c>
-      <c r="K73" s="62">
+      <c r="K73" s="23">
         <v>0.247</v>
       </c>
-      <c r="L73" s="65">
+      <c r="L73" s="26">
         <v>0.249</v>
       </c>
-      <c r="M73" s="62">
+      <c r="M73" s="23">
         <v>0.23699999999999999</v>
       </c>
-      <c r="N73" s="54">
+      <c r="N73" s="16">
         <v>0.218</v>
       </c>
-      <c r="O73" s="50" t="s">
+      <c r="O73" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="55"/>
-      <c r="C74" s="74">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" s="44"/>
+      <c r="C74" s="35">
         <v>0.26</v>
       </c>
-      <c r="D74" s="74">
+      <c r="D74" s="35">
         <v>0.26</v>
       </c>
-      <c r="E74" s="67">
+      <c r="E74" s="28">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F74" s="68">
+      <c r="F74" s="29">
         <v>0.246</v>
       </c>
-      <c r="G74" s="67">
+      <c r="G74" s="28">
         <v>0.251</v>
       </c>
-      <c r="H74" s="67">
+      <c r="H74" s="28">
         <v>0.254</v>
       </c>
-      <c r="I74" s="69">
+      <c r="I74" s="30">
         <v>0.27600000000000002</v>
       </c>
-      <c r="J74" s="70">
+      <c r="J74" s="31">
         <v>0.28599999999999998</v>
       </c>
-      <c r="K74" s="68">
+      <c r="K74" s="29">
         <v>0.246</v>
       </c>
-      <c r="L74" s="67">
+      <c r="L74" s="28">
         <v>0.249</v>
       </c>
-      <c r="M74" s="68">
+      <c r="M74" s="29">
         <v>0.23799999999999999</v>
       </c>
-      <c r="N74" s="58">
+      <c r="N74" s="19">
         <v>0.218</v>
       </c>
-      <c r="O74" s="50" t="s">
+      <c r="O74" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B75" s="44" t="s">
+    <row r="75" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B75" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="78">
+      <c r="C75" s="39">
         <v>9</v>
       </c>
-      <c r="D75" s="78">
+      <c r="D75" s="39">
         <v>9</v>
       </c>
-      <c r="E75" s="78">
+      <c r="E75" s="39">
         <v>13</v>
       </c>
-      <c r="F75" s="78">
+      <c r="F75" s="39">
         <v>10</v>
       </c>
-      <c r="G75" s="78">
+      <c r="G75" s="39">
         <v>14</v>
       </c>
-      <c r="H75" s="78">
+      <c r="H75" s="39">
         <v>14</v>
       </c>
-      <c r="I75" s="78">
+      <c r="I75" s="39">
         <v>15</v>
       </c>
-      <c r="J75" s="78">
+      <c r="J75" s="39">
         <v>15</v>
       </c>
-      <c r="K75" s="78">
+      <c r="K75" s="39">
         <v>12</v>
       </c>
-      <c r="L75" s="78">
+      <c r="L75" s="39">
         <v>15</v>
       </c>
-      <c r="M75" s="78">
+      <c r="M75" s="39">
         <v>13</v>
       </c>
-      <c r="N75" s="78">
+      <c r="N75" s="39">
         <v>12</v>
       </c>
-      <c r="O75" s="50" t="s">
+      <c r="O75" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="51"/>
-      <c r="C76" s="54">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" s="43"/>
+      <c r="C76" s="16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D76" s="54">
+      <c r="D76" s="16">
         <v>0.224</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="16">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F76" s="61">
+      <c r="F76" s="22">
         <v>0.246</v>
       </c>
-      <c r="G76" s="61">
+      <c r="G76" s="22">
         <v>0.24199999999999999</v>
       </c>
-      <c r="H76" s="61">
+      <c r="H76" s="22">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I76" s="61">
+      <c r="I76" s="22">
         <v>0.252</v>
       </c>
-      <c r="J76" s="62">
+      <c r="J76" s="23">
         <v>0.254</v>
       </c>
-      <c r="K76" s="79">
+      <c r="K76" s="40">
         <v>0.309</v>
       </c>
-      <c r="L76" s="79">
+      <c r="L76" s="40">
         <v>0.312</v>
       </c>
-      <c r="M76" s="64">
+      <c r="M76" s="25">
         <v>0.307</v>
       </c>
-      <c r="N76" s="80">
+      <c r="N76" s="41">
         <v>0.33</v>
       </c>
-      <c r="O76" s="50" t="s">
+      <c r="O76" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="51"/>
-      <c r="C77" s="53">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" s="43"/>
+      <c r="C77" s="15">
         <v>0.20899999999999999</v>
       </c>
-      <c r="D77" s="54">
+      <c r="D77" s="16">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="15">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F77" s="61">
+      <c r="F77" s="22">
         <v>0.23200000000000001</v>
       </c>
-      <c r="G77" s="61">
+      <c r="G77" s="22">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H77" s="54">
+      <c r="H77" s="16">
         <v>0.224</v>
       </c>
-      <c r="I77" s="61">
+      <c r="I77" s="22">
         <v>0.23400000000000001</v>
       </c>
-      <c r="J77" s="62">
+      <c r="J77" s="23">
         <v>0.23699999999999999</v>
       </c>
-      <c r="K77" s="64">
+      <c r="K77" s="25">
         <v>0.27900000000000003</v>
       </c>
-      <c r="L77" s="64">
+      <c r="L77" s="25">
         <v>0.28100000000000003</v>
       </c>
-      <c r="M77" s="64">
+      <c r="M77" s="25">
         <v>0.27600000000000002</v>
       </c>
-      <c r="N77" s="79">
+      <c r="N77" s="40">
         <v>0.29699999999999999</v>
       </c>
-      <c r="O77" s="50" t="s">
+      <c r="O77" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="55"/>
-      <c r="C78" s="57">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="44"/>
+      <c r="C78" s="18">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D78" s="58">
+      <c r="D78" s="19">
         <v>0.214</v>
       </c>
-      <c r="E78" s="57">
+      <c r="E78" s="18">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F78" s="66">
+      <c r="F78" s="27">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G78" s="66">
+      <c r="G78" s="27">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H78" s="58">
+      <c r="H78" s="19">
         <v>0.222</v>
       </c>
-      <c r="I78" s="66">
+      <c r="I78" s="27">
         <v>0.23300000000000001</v>
       </c>
-      <c r="J78" s="68">
+      <c r="J78" s="29">
         <v>0.23599999999999999</v>
       </c>
-      <c r="K78" s="69">
+      <c r="K78" s="30">
         <v>0.27400000000000002</v>
       </c>
-      <c r="L78" s="69">
+      <c r="L78" s="30">
         <v>0.27500000000000002</v>
       </c>
-      <c r="M78" s="69">
+      <c r="M78" s="30">
         <v>0.27</v>
       </c>
-      <c r="N78" s="70">
+      <c r="N78" s="31">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O78" s="50" t="s">
+      <c r="O78" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3895,1867 +4190,1867 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="37" customWidth="1"/>
-    <col min="3" max="256" width="8.7265625" style="37"/>
-    <col min="257" max="257" width="20.6328125" style="37" customWidth="1"/>
-    <col min="258" max="258" width="12.6328125" style="37" customWidth="1"/>
-    <col min="259" max="512" width="8.7265625" style="37"/>
-    <col min="513" max="513" width="20.6328125" style="37" customWidth="1"/>
-    <col min="514" max="514" width="12.6328125" style="37" customWidth="1"/>
-    <col min="515" max="768" width="8.7265625" style="37"/>
-    <col min="769" max="769" width="20.6328125" style="37" customWidth="1"/>
-    <col min="770" max="770" width="12.6328125" style="37" customWidth="1"/>
-    <col min="771" max="1024" width="8.7265625" style="37"/>
-    <col min="1025" max="1025" width="20.6328125" style="37" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6328125" style="37" customWidth="1"/>
-    <col min="1027" max="1280" width="8.7265625" style="37"/>
-    <col min="1281" max="1281" width="20.6328125" style="37" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6328125" style="37" customWidth="1"/>
-    <col min="1283" max="1536" width="8.7265625" style="37"/>
-    <col min="1537" max="1537" width="20.6328125" style="37" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6328125" style="37" customWidth="1"/>
-    <col min="1539" max="1792" width="8.7265625" style="37"/>
-    <col min="1793" max="1793" width="20.6328125" style="37" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6328125" style="37" customWidth="1"/>
-    <col min="1795" max="2048" width="8.7265625" style="37"/>
-    <col min="2049" max="2049" width="20.6328125" style="37" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6328125" style="37" customWidth="1"/>
-    <col min="2051" max="2304" width="8.7265625" style="37"/>
-    <col min="2305" max="2305" width="20.6328125" style="37" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6328125" style="37" customWidth="1"/>
-    <col min="2307" max="2560" width="8.7265625" style="37"/>
-    <col min="2561" max="2561" width="20.6328125" style="37" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6328125" style="37" customWidth="1"/>
-    <col min="2563" max="2816" width="8.7265625" style="37"/>
-    <col min="2817" max="2817" width="20.6328125" style="37" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6328125" style="37" customWidth="1"/>
-    <col min="2819" max="3072" width="8.7265625" style="37"/>
-    <col min="3073" max="3073" width="20.6328125" style="37" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6328125" style="37" customWidth="1"/>
-    <col min="3075" max="3328" width="8.7265625" style="37"/>
-    <col min="3329" max="3329" width="20.6328125" style="37" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6328125" style="37" customWidth="1"/>
-    <col min="3331" max="3584" width="8.7265625" style="37"/>
-    <col min="3585" max="3585" width="20.6328125" style="37" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6328125" style="37" customWidth="1"/>
-    <col min="3587" max="3840" width="8.7265625" style="37"/>
-    <col min="3841" max="3841" width="20.6328125" style="37" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6328125" style="37" customWidth="1"/>
-    <col min="3843" max="4096" width="8.7265625" style="37"/>
-    <col min="4097" max="4097" width="20.6328125" style="37" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6328125" style="37" customWidth="1"/>
-    <col min="4099" max="4352" width="8.7265625" style="37"/>
-    <col min="4353" max="4353" width="20.6328125" style="37" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6328125" style="37" customWidth="1"/>
-    <col min="4355" max="4608" width="8.7265625" style="37"/>
-    <col min="4609" max="4609" width="20.6328125" style="37" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6328125" style="37" customWidth="1"/>
-    <col min="4611" max="4864" width="8.7265625" style="37"/>
-    <col min="4865" max="4865" width="20.6328125" style="37" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6328125" style="37" customWidth="1"/>
-    <col min="4867" max="5120" width="8.7265625" style="37"/>
-    <col min="5121" max="5121" width="20.6328125" style="37" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6328125" style="37" customWidth="1"/>
-    <col min="5123" max="5376" width="8.7265625" style="37"/>
-    <col min="5377" max="5377" width="20.6328125" style="37" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6328125" style="37" customWidth="1"/>
-    <col min="5379" max="5632" width="8.7265625" style="37"/>
-    <col min="5633" max="5633" width="20.6328125" style="37" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6328125" style="37" customWidth="1"/>
-    <col min="5635" max="5888" width="8.7265625" style="37"/>
-    <col min="5889" max="5889" width="20.6328125" style="37" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6328125" style="37" customWidth="1"/>
-    <col min="5891" max="6144" width="8.7265625" style="37"/>
-    <col min="6145" max="6145" width="20.6328125" style="37" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6328125" style="37" customWidth="1"/>
-    <col min="6147" max="6400" width="8.7265625" style="37"/>
-    <col min="6401" max="6401" width="20.6328125" style="37" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6328125" style="37" customWidth="1"/>
-    <col min="6403" max="6656" width="8.7265625" style="37"/>
-    <col min="6657" max="6657" width="20.6328125" style="37" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6328125" style="37" customWidth="1"/>
-    <col min="6659" max="6912" width="8.7265625" style="37"/>
-    <col min="6913" max="6913" width="20.6328125" style="37" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6328125" style="37" customWidth="1"/>
-    <col min="6915" max="7168" width="8.7265625" style="37"/>
-    <col min="7169" max="7169" width="20.6328125" style="37" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6328125" style="37" customWidth="1"/>
-    <col min="7171" max="7424" width="8.7265625" style="37"/>
-    <col min="7425" max="7425" width="20.6328125" style="37" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6328125" style="37" customWidth="1"/>
-    <col min="7427" max="7680" width="8.7265625" style="37"/>
-    <col min="7681" max="7681" width="20.6328125" style="37" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6328125" style="37" customWidth="1"/>
-    <col min="7683" max="7936" width="8.7265625" style="37"/>
-    <col min="7937" max="7937" width="20.6328125" style="37" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6328125" style="37" customWidth="1"/>
-    <col min="7939" max="8192" width="8.7265625" style="37"/>
-    <col min="8193" max="8193" width="20.6328125" style="37" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6328125" style="37" customWidth="1"/>
-    <col min="8195" max="8448" width="8.7265625" style="37"/>
-    <col min="8449" max="8449" width="20.6328125" style="37" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6328125" style="37" customWidth="1"/>
-    <col min="8451" max="8704" width="8.7265625" style="37"/>
-    <col min="8705" max="8705" width="20.6328125" style="37" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6328125" style="37" customWidth="1"/>
-    <col min="8707" max="8960" width="8.7265625" style="37"/>
-    <col min="8961" max="8961" width="20.6328125" style="37" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6328125" style="37" customWidth="1"/>
-    <col min="8963" max="9216" width="8.7265625" style="37"/>
-    <col min="9217" max="9217" width="20.6328125" style="37" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6328125" style="37" customWidth="1"/>
-    <col min="9219" max="9472" width="8.7265625" style="37"/>
-    <col min="9473" max="9473" width="20.6328125" style="37" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6328125" style="37" customWidth="1"/>
-    <col min="9475" max="9728" width="8.7265625" style="37"/>
-    <col min="9729" max="9729" width="20.6328125" style="37" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6328125" style="37" customWidth="1"/>
-    <col min="9731" max="9984" width="8.7265625" style="37"/>
-    <col min="9985" max="9985" width="20.6328125" style="37" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6328125" style="37" customWidth="1"/>
-    <col min="9987" max="10240" width="8.7265625" style="37"/>
-    <col min="10241" max="10241" width="20.6328125" style="37" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6328125" style="37" customWidth="1"/>
-    <col min="10243" max="10496" width="8.7265625" style="37"/>
-    <col min="10497" max="10497" width="20.6328125" style="37" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6328125" style="37" customWidth="1"/>
-    <col min="10499" max="10752" width="8.7265625" style="37"/>
-    <col min="10753" max="10753" width="20.6328125" style="37" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6328125" style="37" customWidth="1"/>
-    <col min="10755" max="11008" width="8.7265625" style="37"/>
-    <col min="11009" max="11009" width="20.6328125" style="37" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6328125" style="37" customWidth="1"/>
-    <col min="11011" max="11264" width="8.7265625" style="37"/>
-    <col min="11265" max="11265" width="20.6328125" style="37" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6328125" style="37" customWidth="1"/>
-    <col min="11267" max="11520" width="8.7265625" style="37"/>
-    <col min="11521" max="11521" width="20.6328125" style="37" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6328125" style="37" customWidth="1"/>
-    <col min="11523" max="11776" width="8.7265625" style="37"/>
-    <col min="11777" max="11777" width="20.6328125" style="37" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6328125" style="37" customWidth="1"/>
-    <col min="11779" max="12032" width="8.7265625" style="37"/>
-    <col min="12033" max="12033" width="20.6328125" style="37" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6328125" style="37" customWidth="1"/>
-    <col min="12035" max="12288" width="8.7265625" style="37"/>
-    <col min="12289" max="12289" width="20.6328125" style="37" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6328125" style="37" customWidth="1"/>
-    <col min="12291" max="12544" width="8.7265625" style="37"/>
-    <col min="12545" max="12545" width="20.6328125" style="37" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6328125" style="37" customWidth="1"/>
-    <col min="12547" max="12800" width="8.7265625" style="37"/>
-    <col min="12801" max="12801" width="20.6328125" style="37" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6328125" style="37" customWidth="1"/>
-    <col min="12803" max="13056" width="8.7265625" style="37"/>
-    <col min="13057" max="13057" width="20.6328125" style="37" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6328125" style="37" customWidth="1"/>
-    <col min="13059" max="13312" width="8.7265625" style="37"/>
-    <col min="13313" max="13313" width="20.6328125" style="37" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6328125" style="37" customWidth="1"/>
-    <col min="13315" max="13568" width="8.7265625" style="37"/>
-    <col min="13569" max="13569" width="20.6328125" style="37" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6328125" style="37" customWidth="1"/>
-    <col min="13571" max="13824" width="8.7265625" style="37"/>
-    <col min="13825" max="13825" width="20.6328125" style="37" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6328125" style="37" customWidth="1"/>
-    <col min="13827" max="14080" width="8.7265625" style="37"/>
-    <col min="14081" max="14081" width="20.6328125" style="37" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6328125" style="37" customWidth="1"/>
-    <col min="14083" max="14336" width="8.7265625" style="37"/>
-    <col min="14337" max="14337" width="20.6328125" style="37" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6328125" style="37" customWidth="1"/>
-    <col min="14339" max="14592" width="8.7265625" style="37"/>
-    <col min="14593" max="14593" width="20.6328125" style="37" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6328125" style="37" customWidth="1"/>
-    <col min="14595" max="14848" width="8.7265625" style="37"/>
-    <col min="14849" max="14849" width="20.6328125" style="37" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6328125" style="37" customWidth="1"/>
-    <col min="14851" max="15104" width="8.7265625" style="37"/>
-    <col min="15105" max="15105" width="20.6328125" style="37" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6328125" style="37" customWidth="1"/>
-    <col min="15107" max="15360" width="8.7265625" style="37"/>
-    <col min="15361" max="15361" width="20.6328125" style="37" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6328125" style="37" customWidth="1"/>
-    <col min="15363" max="15616" width="8.7265625" style="37"/>
-    <col min="15617" max="15617" width="20.6328125" style="37" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6328125" style="37" customWidth="1"/>
-    <col min="15619" max="15872" width="8.7265625" style="37"/>
-    <col min="15873" max="15873" width="20.6328125" style="37" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6328125" style="37" customWidth="1"/>
-    <col min="15875" max="16128" width="8.7265625" style="37"/>
-    <col min="16129" max="16129" width="20.6328125" style="37" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6328125" style="37" customWidth="1"/>
-    <col min="16131" max="16384" width="8.7265625" style="37"/>
+    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="256" width="8.7109375" style="1"/>
+    <col min="257" max="257" width="20.5703125" style="1" customWidth="1"/>
+    <col min="258" max="258" width="12.5703125" style="1" customWidth="1"/>
+    <col min="259" max="512" width="8.7109375" style="1"/>
+    <col min="513" max="513" width="20.5703125" style="1" customWidth="1"/>
+    <col min="514" max="514" width="12.5703125" style="1" customWidth="1"/>
+    <col min="515" max="768" width="8.7109375" style="1"/>
+    <col min="769" max="769" width="20.5703125" style="1" customWidth="1"/>
+    <col min="770" max="770" width="12.5703125" style="1" customWidth="1"/>
+    <col min="771" max="1024" width="8.7109375" style="1"/>
+    <col min="1025" max="1025" width="20.5703125" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1027" max="1280" width="8.7109375" style="1"/>
+    <col min="1281" max="1281" width="20.5703125" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1283" max="1536" width="8.7109375" style="1"/>
+    <col min="1537" max="1537" width="20.5703125" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1539" max="1792" width="8.7109375" style="1"/>
+    <col min="1793" max="1793" width="20.5703125" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1795" max="2048" width="8.7109375" style="1"/>
+    <col min="2049" max="2049" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2051" max="2304" width="8.7109375" style="1"/>
+    <col min="2305" max="2305" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2307" max="2560" width="8.7109375" style="1"/>
+    <col min="2561" max="2561" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2563" max="2816" width="8.7109375" style="1"/>
+    <col min="2817" max="2817" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2819" max="3072" width="8.7109375" style="1"/>
+    <col min="3073" max="3073" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3075" max="3328" width="8.7109375" style="1"/>
+    <col min="3329" max="3329" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3331" max="3584" width="8.7109375" style="1"/>
+    <col min="3585" max="3585" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3587" max="3840" width="8.7109375" style="1"/>
+    <col min="3841" max="3841" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3843" max="4096" width="8.7109375" style="1"/>
+    <col min="4097" max="4097" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4099" max="4352" width="8.7109375" style="1"/>
+    <col min="4353" max="4353" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4355" max="4608" width="8.7109375" style="1"/>
+    <col min="4609" max="4609" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4611" max="4864" width="8.7109375" style="1"/>
+    <col min="4865" max="4865" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4867" max="5120" width="8.7109375" style="1"/>
+    <col min="5121" max="5121" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5123" max="5376" width="8.7109375" style="1"/>
+    <col min="5377" max="5377" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5379" max="5632" width="8.7109375" style="1"/>
+    <col min="5633" max="5633" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5635" max="5888" width="8.7109375" style="1"/>
+    <col min="5889" max="5889" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5891" max="6144" width="8.7109375" style="1"/>
+    <col min="6145" max="6145" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6147" max="6400" width="8.7109375" style="1"/>
+    <col min="6401" max="6401" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6403" max="6656" width="8.7109375" style="1"/>
+    <col min="6657" max="6657" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6659" max="6912" width="8.7109375" style="1"/>
+    <col min="6913" max="6913" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6915" max="7168" width="8.7109375" style="1"/>
+    <col min="7169" max="7169" width="20.5703125" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7171" max="7424" width="8.7109375" style="1"/>
+    <col min="7425" max="7425" width="20.5703125" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7427" max="7680" width="8.7109375" style="1"/>
+    <col min="7681" max="7681" width="20.5703125" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7683" max="7936" width="8.7109375" style="1"/>
+    <col min="7937" max="7937" width="20.5703125" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7939" max="8192" width="8.7109375" style="1"/>
+    <col min="8193" max="8193" width="20.5703125" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8195" max="8448" width="8.7109375" style="1"/>
+    <col min="8449" max="8449" width="20.5703125" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8451" max="8704" width="8.7109375" style="1"/>
+    <col min="8705" max="8705" width="20.5703125" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8707" max="8960" width="8.7109375" style="1"/>
+    <col min="8961" max="8961" width="20.5703125" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8963" max="9216" width="8.7109375" style="1"/>
+    <col min="9217" max="9217" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9219" max="9472" width="8.7109375" style="1"/>
+    <col min="9473" max="9473" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9475" max="9728" width="8.7109375" style="1"/>
+    <col min="9729" max="9729" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9731" max="9984" width="8.7109375" style="1"/>
+    <col min="9985" max="9985" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9987" max="10240" width="8.7109375" style="1"/>
+    <col min="10241" max="10241" width="20.5703125" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10243" max="10496" width="8.7109375" style="1"/>
+    <col min="10497" max="10497" width="20.5703125" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10499" max="10752" width="8.7109375" style="1"/>
+    <col min="10753" max="10753" width="20.5703125" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10755" max="11008" width="8.7109375" style="1"/>
+    <col min="11009" max="11009" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11011" max="11264" width="8.7109375" style="1"/>
+    <col min="11265" max="11265" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11267" max="11520" width="8.7109375" style="1"/>
+    <col min="11521" max="11521" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11523" max="11776" width="8.7109375" style="1"/>
+    <col min="11777" max="11777" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11779" max="12032" width="8.7109375" style="1"/>
+    <col min="12033" max="12033" width="20.5703125" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12035" max="12288" width="8.7109375" style="1"/>
+    <col min="12289" max="12289" width="20.5703125" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12291" max="12544" width="8.7109375" style="1"/>
+    <col min="12545" max="12545" width="20.5703125" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12547" max="12800" width="8.7109375" style="1"/>
+    <col min="12801" max="12801" width="20.5703125" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12803" max="13056" width="8.7109375" style="1"/>
+    <col min="13057" max="13057" width="20.5703125" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13059" max="13312" width="8.7109375" style="1"/>
+    <col min="13313" max="13313" width="20.5703125" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13315" max="13568" width="8.7109375" style="1"/>
+    <col min="13569" max="13569" width="20.5703125" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13571" max="13824" width="8.7109375" style="1"/>
+    <col min="13825" max="13825" width="20.5703125" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13827" max="14080" width="8.7109375" style="1"/>
+    <col min="14081" max="14081" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14083" max="14336" width="8.7109375" style="1"/>
+    <col min="14337" max="14337" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14339" max="14592" width="8.7109375" style="1"/>
+    <col min="14593" max="14593" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14595" max="14848" width="8.7109375" style="1"/>
+    <col min="14849" max="14849" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14851" max="15104" width="8.7109375" style="1"/>
+    <col min="15105" max="15105" width="20.5703125" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15107" max="15360" width="8.7109375" style="1"/>
+    <col min="15361" max="15361" width="20.5703125" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15363" max="15616" width="8.7109375" style="1"/>
+    <col min="15617" max="15617" width="20.5703125" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15619" max="15872" width="8.7109375" style="1"/>
+    <col min="15873" max="15873" width="20.5703125" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15875" max="16128" width="8.7109375" style="1"/>
+    <col min="16129" max="16129" width="20.5703125" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="12.5703125" style="1" customWidth="1"/>
+    <col min="16131" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="2">
         <v>45625</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="3">
         <v>0.54215277777777782</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="41"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="37" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="41"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="1">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="43">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7">
         <v>1</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="7">
         <v>2</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="7">
         <v>3</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="7">
         <v>4</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="7">
         <v>5</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="7">
         <v>6</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="7">
         <v>7</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="7">
         <v>8</v>
       </c>
-      <c r="K46" s="43">
+      <c r="K46" s="7">
         <v>9</v>
       </c>
-      <c r="L46" s="43">
+      <c r="L46" s="7">
         <v>10</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="7">
         <v>11</v>
       </c>
-      <c r="N46" s="43">
+      <c r="N46" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B47" s="44" t="s">
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="8">
         <v>491</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="9">
         <v>459</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="9">
         <v>459</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="8">
         <v>468</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="10">
         <v>556</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="11">
         <v>589</v>
       </c>
-      <c r="I47" s="45">
+      <c r="I47" s="8">
         <v>524</v>
       </c>
-      <c r="J47" s="48">
+      <c r="J47" s="11">
         <v>599</v>
       </c>
-      <c r="K47" s="47">
+      <c r="K47" s="10">
         <v>565</v>
       </c>
-      <c r="L47" s="48">
+      <c r="L47" s="11">
         <v>624</v>
       </c>
-      <c r="M47" s="49">
+      <c r="M47" s="12">
         <v>679</v>
       </c>
-      <c r="N47" s="48">
+      <c r="N47" s="11">
         <v>594</v>
       </c>
-      <c r="O47" s="50" t="s">
+      <c r="O47" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="51"/>
-      <c r="C48" s="52">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="43"/>
+      <c r="C48" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="14">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="14">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F48" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G48" s="52">
+      <c r="G48" s="14">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H48" s="52">
+      <c r="H48" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I48" s="15">
         <v>0.222</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J48" s="15">
         <v>0.219</v>
       </c>
-      <c r="K48" s="52">
+      <c r="K48" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="14">
         <v>0.20599999999999999</v>
       </c>
-      <c r="M48" s="53">
+      <c r="M48" s="15">
         <v>0.214</v>
       </c>
-      <c r="N48" s="52">
+      <c r="N48" s="14">
         <v>0.20100000000000001</v>
       </c>
-      <c r="O48" s="50" t="s">
+      <c r="O48" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="51"/>
-      <c r="C49" s="53">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="43"/>
+      <c r="C49" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="14">
         <v>0.191</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G49" s="15">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="I49" s="54">
+      <c r="I49" s="16">
         <v>0.216</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K49" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="14">
         <v>0.2</v>
       </c>
-      <c r="M49" s="53">
+      <c r="M49" s="15">
         <v>0.20899999999999999</v>
       </c>
-      <c r="N49" s="52">
+      <c r="N49" s="14">
         <v>0.19400000000000001</v>
       </c>
-      <c r="O49" s="50" t="s">
+      <c r="O49" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="55"/>
-      <c r="C50" s="56">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="44"/>
+      <c r="C50" s="17">
         <v>0.20200000000000001</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="18">
         <v>0.20300000000000001</v>
       </c>
-      <c r="E50" s="56">
+      <c r="E50" s="17">
         <v>0.193</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="18">
         <v>0.20599999999999999</v>
       </c>
-      <c r="G50" s="57">
+      <c r="G50" s="18">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H50" s="57">
+      <c r="H50" s="18">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I50" s="58">
+      <c r="I50" s="19">
         <v>0.217</v>
       </c>
-      <c r="J50" s="57">
+      <c r="J50" s="18">
         <v>0.21299999999999999</v>
       </c>
-      <c r="K50" s="56">
+      <c r="K50" s="17">
         <v>0.20200000000000001</v>
       </c>
-      <c r="L50" s="56">
+      <c r="L50" s="17">
         <v>0.20200000000000001</v>
       </c>
-      <c r="M50" s="57">
+      <c r="M50" s="18">
         <v>0.21</v>
       </c>
-      <c r="N50" s="56">
+      <c r="N50" s="17">
         <v>0.19500000000000001</v>
       </c>
-      <c r="O50" s="50" t="s">
+      <c r="O50" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="44" t="s">
+    <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="8">
         <v>482</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="9">
         <v>449</v>
       </c>
-      <c r="E51" s="59">
+      <c r="E51" s="20">
         <v>389</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="20">
         <v>381</v>
       </c>
-      <c r="G51" s="47">
+      <c r="G51" s="10">
         <v>537</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="9">
         <v>411</v>
       </c>
-      <c r="I51" s="47">
+      <c r="I51" s="10">
         <v>538</v>
       </c>
-      <c r="J51" s="45">
+      <c r="J51" s="8">
         <v>523</v>
       </c>
-      <c r="K51" s="60">
+      <c r="K51" s="21">
         <v>812</v>
       </c>
-      <c r="L51" s="47">
+      <c r="L51" s="10">
         <v>580</v>
       </c>
-      <c r="M51" s="47">
+      <c r="M51" s="10">
         <v>538</v>
       </c>
-      <c r="N51" s="48">
+      <c r="N51" s="11">
         <v>620</v>
       </c>
-      <c r="O51" s="50" t="s">
+      <c r="O51" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="51"/>
-      <c r="C52" s="52">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="43"/>
+      <c r="C52" s="14">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="15">
         <v>0.223</v>
       </c>
-      <c r="E52" s="54">
+      <c r="E52" s="16">
         <v>0.224</v>
       </c>
-      <c r="F52" s="53">
+      <c r="F52" s="15">
         <v>0.217</v>
       </c>
-      <c r="G52" s="54">
+      <c r="G52" s="16">
         <v>0.224</v>
       </c>
-      <c r="H52" s="53">
+      <c r="H52" s="15">
         <v>0.214</v>
       </c>
-      <c r="I52" s="53">
+      <c r="I52" s="15">
         <v>0.214</v>
       </c>
-      <c r="J52" s="54">
+      <c r="J52" s="16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K52" s="53">
+      <c r="K52" s="15">
         <v>0.221</v>
       </c>
-      <c r="L52" s="53">
+      <c r="L52" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="M52" s="53">
+      <c r="M52" s="15">
         <v>0.214</v>
       </c>
-      <c r="N52" s="52">
+      <c r="N52" s="14">
         <v>0.20599999999999999</v>
       </c>
-      <c r="O52" s="50" t="s">
+      <c r="O52" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="51"/>
-      <c r="C53" s="52">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="43"/>
+      <c r="C53" s="14">
         <v>0.19400000000000001</v>
       </c>
-      <c r="D53" s="54">
+      <c r="D53" s="16">
         <v>0.216</v>
       </c>
-      <c r="E53" s="54">
+      <c r="E53" s="16">
         <v>0.217</v>
       </c>
-      <c r="F53" s="53">
+      <c r="F53" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G53" s="54">
+      <c r="G53" s="16">
         <v>0.218</v>
       </c>
-      <c r="H53" s="53">
+      <c r="H53" s="15">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="15">
         <v>0.20599999999999999</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="16">
         <v>0.218</v>
       </c>
-      <c r="K53" s="54">
+      <c r="K53" s="16">
         <v>0.21299999999999999</v>
       </c>
-      <c r="L53" s="53">
+      <c r="L53" s="15">
         <v>0.20300000000000001</v>
       </c>
-      <c r="M53" s="53">
+      <c r="M53" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="N53" s="52">
+      <c r="N53" s="14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="O53" s="50" t="s">
+      <c r="O53" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="55"/>
-      <c r="C54" s="56">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="44"/>
+      <c r="C54" s="17">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D54" s="58">
+      <c r="D54" s="19">
         <v>0.217</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="19">
         <v>0.218</v>
       </c>
-      <c r="F54" s="57">
+      <c r="F54" s="18">
         <v>0.21199999999999999</v>
       </c>
-      <c r="G54" s="58">
+      <c r="G54" s="19">
         <v>0.221</v>
       </c>
-      <c r="H54" s="57">
+      <c r="H54" s="18">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I54" s="57">
+      <c r="I54" s="18">
         <v>0.20699999999999999</v>
       </c>
-      <c r="J54" s="58">
+      <c r="J54" s="19">
         <v>0.22</v>
       </c>
-      <c r="K54" s="58">
+      <c r="K54" s="19">
         <v>0.216</v>
       </c>
-      <c r="L54" s="57">
+      <c r="L54" s="18">
         <v>0.20300000000000001</v>
       </c>
-      <c r="M54" s="57">
+      <c r="M54" s="18">
         <v>0.20599999999999999</v>
       </c>
-      <c r="N54" s="56">
+      <c r="N54" s="17">
         <v>0.19900000000000001</v>
       </c>
-      <c r="O54" s="50" t="s">
+      <c r="O54" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="44" t="s">
+    <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="8">
         <v>506</v>
       </c>
-      <c r="D55" s="59">
+      <c r="D55" s="20">
         <v>375</v>
       </c>
-      <c r="E55" s="59">
+      <c r="E55" s="20">
         <v>394</v>
       </c>
-      <c r="F55" s="59">
+      <c r="F55" s="20">
         <v>369</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="9">
         <v>456</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="10">
         <v>537</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="8">
         <v>484</v>
       </c>
-      <c r="J55" s="45">
+      <c r="J55" s="8">
         <v>489</v>
       </c>
-      <c r="K55" s="45">
+      <c r="K55" s="8">
         <v>481</v>
       </c>
-      <c r="L55" s="47">
+      <c r="L55" s="10">
         <v>538</v>
       </c>
-      <c r="M55" s="48">
+      <c r="M55" s="11">
         <v>609</v>
       </c>
-      <c r="N55" s="49">
+      <c r="N55" s="12">
         <v>648</v>
       </c>
-      <c r="O55" s="50" t="s">
+      <c r="O55" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="51"/>
-      <c r="C56" s="52">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="43"/>
+      <c r="C56" s="14">
         <v>0.20899999999999999</v>
       </c>
-      <c r="D56" s="54">
+      <c r="D56" s="16">
         <v>0.23</v>
       </c>
-      <c r="E56" s="54">
+      <c r="E56" s="16">
         <v>0.23300000000000001</v>
       </c>
-      <c r="F56" s="54">
+      <c r="F56" s="16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G56" s="61">
+      <c r="G56" s="22">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H56" s="62">
+      <c r="H56" s="23">
         <v>0.26100000000000001</v>
       </c>
-      <c r="I56" s="61">
+      <c r="I56" s="22">
         <v>0.25</v>
       </c>
-      <c r="J56" s="54">
+      <c r="J56" s="16">
         <v>0.23699999999999999</v>
       </c>
-      <c r="K56" s="63">
+      <c r="K56" s="24">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L56" s="64">
+      <c r="L56" s="25">
         <v>0.29799999999999999</v>
       </c>
-      <c r="M56" s="64">
+      <c r="M56" s="25">
         <v>0.29599999999999999</v>
       </c>
-      <c r="N56" s="65">
+      <c r="N56" s="26">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O56" s="50" t="s">
+      <c r="O56" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="51"/>
-      <c r="C57" s="52">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="43"/>
+      <c r="C57" s="14">
         <v>0.2</v>
       </c>
-      <c r="D57" s="54">
+      <c r="D57" s="16">
         <v>0.22</v>
       </c>
-      <c r="E57" s="54">
+      <c r="E57" s="16">
         <v>0.222</v>
       </c>
-      <c r="F57" s="54">
+      <c r="F57" s="16">
         <v>0.216</v>
       </c>
-      <c r="G57" s="61">
+      <c r="G57" s="22">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="26">
         <v>0.25</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I57" s="23">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J57" s="61">
+      <c r="J57" s="22">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K57" s="64">
+      <c r="K57" s="25">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L57" s="64">
+      <c r="L57" s="25">
         <v>0.28299999999999997</v>
       </c>
-      <c r="M57" s="64">
+      <c r="M57" s="25">
         <v>0.27800000000000002</v>
       </c>
-      <c r="N57" s="65">
+      <c r="N57" s="26">
         <v>0.25800000000000001</v>
       </c>
-      <c r="O57" s="50" t="s">
+      <c r="O57" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="55"/>
-      <c r="C58" s="56">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="44"/>
+      <c r="C58" s="17">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D58" s="58">
+      <c r="D58" s="19">
         <v>0.221</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="19">
         <v>0.222</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="19">
         <v>0.217</v>
       </c>
-      <c r="G58" s="66">
+      <c r="G58" s="27">
         <v>0.22800000000000001</v>
       </c>
-      <c r="H58" s="67">
+      <c r="H58" s="28">
         <v>0.248</v>
       </c>
-      <c r="I58" s="68">
+      <c r="I58" s="29">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J58" s="66">
+      <c r="J58" s="27">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K58" s="69">
+      <c r="K58" s="30">
         <v>0.28100000000000003</v>
       </c>
-      <c r="L58" s="70">
+      <c r="L58" s="31">
         <v>0.28299999999999997</v>
       </c>
-      <c r="M58" s="69">
+      <c r="M58" s="30">
         <v>0.27800000000000002</v>
       </c>
-      <c r="N58" s="67">
+      <c r="N58" s="28">
         <v>0.254</v>
       </c>
-      <c r="O58" s="50" t="s">
+      <c r="O58" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="44" t="s">
+    <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="11">
         <v>584</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="8">
         <v>520</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="8">
         <v>485</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="8">
         <v>489</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="8">
         <v>494</v>
       </c>
-      <c r="H59" s="47">
+      <c r="H59" s="10">
         <v>549</v>
       </c>
-      <c r="I59" s="45">
+      <c r="I59" s="8">
         <v>501</v>
       </c>
-      <c r="J59" s="47">
+      <c r="J59" s="10">
         <v>529</v>
       </c>
-      <c r="K59" s="45">
+      <c r="K59" s="8">
         <v>522</v>
       </c>
-      <c r="L59" s="47">
+      <c r="L59" s="10">
         <v>580</v>
       </c>
-      <c r="M59" s="48">
+      <c r="M59" s="11">
         <v>600</v>
       </c>
-      <c r="N59" s="49">
+      <c r="N59" s="12">
         <v>661</v>
       </c>
-      <c r="O59" s="50" t="s">
+      <c r="O59" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="51"/>
-      <c r="C60" s="62">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="43"/>
+      <c r="C60" s="23">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="23">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E60" s="65">
+      <c r="E60" s="26">
         <v>0.27</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="23">
         <v>0.26500000000000001</v>
       </c>
-      <c r="G60" s="63">
+      <c r="G60" s="24">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H60" s="63">
+      <c r="H60" s="24">
         <v>0.28399999999999997</v>
       </c>
-      <c r="I60" s="63">
+      <c r="I60" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J60" s="63">
+      <c r="J60" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K60" s="71">
+      <c r="K60" s="32">
         <v>0.39200000000000002</v>
       </c>
-      <c r="L60" s="71">
+      <c r="L60" s="32">
         <v>0.38600000000000001</v>
       </c>
-      <c r="M60" s="72">
+      <c r="M60" s="33">
         <v>0.377</v>
       </c>
-      <c r="N60" s="72">
+      <c r="N60" s="33">
         <v>0.36799999999999999</v>
       </c>
-      <c r="O60" s="50" t="s">
+      <c r="O60" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="51"/>
-      <c r="C61" s="62">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="43"/>
+      <c r="C61" s="23">
         <v>0.245</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="26">
         <v>0.25</v>
       </c>
-      <c r="E61" s="65">
+      <c r="E61" s="26">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F61" s="65">
+      <c r="F61" s="26">
         <v>0.249</v>
       </c>
-      <c r="G61" s="63">
+      <c r="G61" s="24">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H61" s="63">
+      <c r="H61" s="24">
         <v>0.26400000000000001</v>
       </c>
-      <c r="I61" s="65">
+      <c r="I61" s="26">
         <v>0.25900000000000001</v>
       </c>
-      <c r="J61" s="63">
+      <c r="J61" s="24">
         <v>0.26800000000000002</v>
       </c>
-      <c r="K61" s="71">
+      <c r="K61" s="32">
         <v>0.35699999999999998</v>
       </c>
-      <c r="L61" s="71">
+      <c r="L61" s="32">
         <v>0.35399999999999998</v>
       </c>
-      <c r="M61" s="71">
+      <c r="M61" s="32">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N61" s="73">
+      <c r="N61" s="34">
         <v>0.32900000000000001</v>
       </c>
-      <c r="O61" s="50" t="s">
+      <c r="O61" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="55"/>
-      <c r="C62" s="68">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="44"/>
+      <c r="C62" s="29">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D62" s="67">
+      <c r="D62" s="28">
         <v>0.249</v>
       </c>
-      <c r="E62" s="67">
+      <c r="E62" s="28">
         <v>0.255</v>
       </c>
-      <c r="F62" s="67">
+      <c r="F62" s="28">
         <v>0.25</v>
       </c>
-      <c r="G62" s="74">
+      <c r="G62" s="35">
         <v>0.26</v>
       </c>
-      <c r="H62" s="74">
+      <c r="H62" s="35">
         <v>0.25900000000000001</v>
       </c>
-      <c r="I62" s="67">
+      <c r="I62" s="28">
         <v>0.254</v>
       </c>
-      <c r="J62" s="74">
+      <c r="J62" s="35">
         <v>0.26500000000000001</v>
       </c>
-      <c r="K62" s="75">
+      <c r="K62" s="36">
         <v>0.35</v>
       </c>
-      <c r="L62" s="75">
+      <c r="L62" s="36">
         <v>0.34499999999999997</v>
       </c>
-      <c r="M62" s="76">
+      <c r="M62" s="37">
         <v>0.33600000000000002</v>
       </c>
-      <c r="N62" s="77">
+      <c r="N62" s="38">
         <v>0.317</v>
       </c>
-      <c r="O62" s="50" t="s">
+      <c r="O62" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="44" t="s">
+    <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="78">
+      <c r="C63" s="39">
         <v>10</v>
       </c>
-      <c r="D63" s="78">
+      <c r="D63" s="39">
         <v>10</v>
       </c>
-      <c r="E63" s="78">
+      <c r="E63" s="39">
         <v>10</v>
       </c>
-      <c r="F63" s="78">
+      <c r="F63" s="39">
         <v>9</v>
       </c>
-      <c r="G63" s="78">
+      <c r="G63" s="39">
         <v>7</v>
       </c>
-      <c r="H63" s="78">
+      <c r="H63" s="39">
         <v>10</v>
       </c>
-      <c r="I63" s="78">
+      <c r="I63" s="39">
         <v>11</v>
       </c>
-      <c r="J63" s="78">
+      <c r="J63" s="39">
         <v>8</v>
       </c>
-      <c r="K63" s="78">
+      <c r="K63" s="39">
         <v>13</v>
       </c>
-      <c r="L63" s="78">
+      <c r="L63" s="39">
         <v>7</v>
       </c>
-      <c r="M63" s="78">
+      <c r="M63" s="39">
         <v>10</v>
       </c>
-      <c r="N63" s="78">
+      <c r="N63" s="39">
         <v>14</v>
       </c>
-      <c r="O63" s="50" t="s">
+      <c r="O63" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="51"/>
-      <c r="C64" s="52">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="43"/>
+      <c r="C64" s="14">
         <v>0.19700000000000001</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="E64" s="53">
+      <c r="E64" s="15">
         <v>0.21</v>
       </c>
-      <c r="F64" s="53">
+      <c r="F64" s="15">
         <v>0.219</v>
       </c>
-      <c r="G64" s="53">
+      <c r="G64" s="15">
         <v>0.218</v>
       </c>
-      <c r="H64" s="53">
+      <c r="H64" s="15">
         <v>0.21299999999999999</v>
       </c>
-      <c r="I64" s="53">
+      <c r="I64" s="15">
         <v>0.216</v>
       </c>
-      <c r="J64" s="54">
+      <c r="J64" s="16">
         <v>0.23</v>
       </c>
-      <c r="K64" s="61">
+      <c r="K64" s="22">
         <v>0.24399999999999999</v>
       </c>
-      <c r="L64" s="53">
+      <c r="L64" s="15">
         <v>0.218</v>
       </c>
-      <c r="M64" s="52">
+      <c r="M64" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="N64" s="52">
+      <c r="N64" s="14">
         <v>0.19600000000000001</v>
       </c>
-      <c r="O64" s="50" t="s">
+      <c r="O64" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="51"/>
-      <c r="C65" s="52">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="43"/>
+      <c r="C65" s="14">
         <v>0.19</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="14">
         <v>0.193</v>
       </c>
-      <c r="E65" s="53">
+      <c r="E65" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F65" s="53">
+      <c r="F65" s="15">
         <v>0.21299999999999999</v>
       </c>
-      <c r="G65" s="53">
+      <c r="G65" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H65" s="53">
+      <c r="H65" s="15">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I65" s="53">
+      <c r="I65" s="15">
         <v>0.21</v>
       </c>
-      <c r="J65" s="61">
+      <c r="J65" s="22">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K65" s="61">
+      <c r="K65" s="22">
         <v>0.23599999999999999</v>
       </c>
-      <c r="L65" s="53">
+      <c r="L65" s="15">
         <v>0.21099999999999999</v>
       </c>
-      <c r="M65" s="53">
+      <c r="M65" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="N65" s="52">
+      <c r="N65" s="14">
         <v>0.189</v>
       </c>
-      <c r="O65" s="50" t="s">
+      <c r="O65" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="55"/>
-      <c r="C66" s="56">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="44"/>
+      <c r="C66" s="17">
         <v>0.193</v>
       </c>
-      <c r="D66" s="56">
+      <c r="D66" s="17">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E66" s="57">
+      <c r="E66" s="18">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F66" s="58">
+      <c r="F66" s="19">
         <v>0.218</v>
       </c>
-      <c r="G66" s="58">
+      <c r="G66" s="19">
         <v>0.214</v>
       </c>
-      <c r="H66" s="57">
+      <c r="H66" s="18">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I66" s="58">
+      <c r="I66" s="19">
         <v>0.215</v>
       </c>
-      <c r="J66" s="66">
+      <c r="J66" s="27">
         <v>0.23</v>
       </c>
-      <c r="K66" s="68">
+      <c r="K66" s="29">
         <v>0.24099999999999999</v>
       </c>
-      <c r="L66" s="58">
+      <c r="L66" s="19">
         <v>0.215</v>
       </c>
-      <c r="M66" s="57">
+      <c r="M66" s="18">
         <v>0.20399999999999999</v>
       </c>
-      <c r="N66" s="56">
+      <c r="N66" s="17">
         <v>0.192</v>
       </c>
-      <c r="O66" s="50" t="s">
+      <c r="O66" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B67" s="44" t="s">
+    <row r="67" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B67" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="78">
+      <c r="C67" s="39">
         <v>11</v>
       </c>
-      <c r="D67" s="78">
+      <c r="D67" s="39">
         <v>7</v>
       </c>
-      <c r="E67" s="78">
+      <c r="E67" s="39">
         <v>10</v>
       </c>
-      <c r="F67" s="78">
+      <c r="F67" s="39">
         <v>8</v>
       </c>
-      <c r="G67" s="78">
+      <c r="G67" s="39">
         <v>11</v>
       </c>
-      <c r="H67" s="78">
+      <c r="H67" s="39">
         <v>10</v>
       </c>
-      <c r="I67" s="78">
+      <c r="I67" s="39">
         <v>10</v>
       </c>
-      <c r="J67" s="78">
+      <c r="J67" s="39">
         <v>7</v>
       </c>
-      <c r="K67" s="78">
+      <c r="K67" s="39">
         <v>12</v>
       </c>
-      <c r="L67" s="78">
+      <c r="L67" s="39">
         <v>11</v>
       </c>
-      <c r="M67" s="78">
+      <c r="M67" s="39">
         <v>7</v>
       </c>
-      <c r="N67" s="78">
+      <c r="N67" s="39">
         <v>8</v>
       </c>
-      <c r="O67" s="50" t="s">
+      <c r="O67" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="51"/>
-      <c r="C68" s="52">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="43"/>
+      <c r="C68" s="14">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="14">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E68" s="54">
+      <c r="E68" s="16">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F68" s="54">
+      <c r="F68" s="16">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G68" s="53">
+      <c r="G68" s="15">
         <v>0.223</v>
       </c>
-      <c r="H68" s="61">
+      <c r="H68" s="22">
         <v>0.24</v>
       </c>
-      <c r="I68" s="54">
+      <c r="I68" s="16">
         <v>0.23100000000000001</v>
       </c>
-      <c r="J68" s="61">
+      <c r="J68" s="22">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K68" s="53">
+      <c r="K68" s="15">
         <v>0.222</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="15">
         <v>0.221</v>
       </c>
-      <c r="M68" s="61">
+      <c r="M68" s="22">
         <v>0.24199999999999999</v>
       </c>
-      <c r="N68" s="53">
+      <c r="N68" s="15">
         <v>0.223</v>
       </c>
-      <c r="O68" s="50" t="s">
+      <c r="O68" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="51"/>
-      <c r="C69" s="52">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="43"/>
+      <c r="C69" s="14">
         <v>0.189</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D69" s="14">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E69" s="54">
+      <c r="E69" s="16">
         <v>0.223</v>
       </c>
-      <c r="F69" s="54">
+      <c r="F69" s="16">
         <v>0.219</v>
       </c>
-      <c r="G69" s="54">
+      <c r="G69" s="16">
         <v>0.216</v>
       </c>
-      <c r="H69" s="61">
+      <c r="H69" s="22">
         <v>0.23300000000000001</v>
       </c>
-      <c r="I69" s="54">
+      <c r="I69" s="16">
         <v>0.223</v>
       </c>
-      <c r="J69" s="61">
+      <c r="J69" s="22">
         <v>0.23499999999999999</v>
       </c>
-      <c r="K69" s="54">
+      <c r="K69" s="16">
         <v>0.216</v>
       </c>
-      <c r="L69" s="54">
+      <c r="L69" s="16">
         <v>0.21299999999999999</v>
       </c>
-      <c r="M69" s="61">
+      <c r="M69" s="22">
         <v>0.23300000000000001</v>
       </c>
-      <c r="N69" s="54">
+      <c r="N69" s="16">
         <v>0.214</v>
       </c>
-      <c r="O69" s="50" t="s">
+      <c r="O69" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="55"/>
-      <c r="C70" s="56">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="44"/>
+      <c r="C70" s="17">
         <v>0.191</v>
       </c>
-      <c r="D70" s="57">
+      <c r="D70" s="18">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E70" s="66">
+      <c r="E70" s="27">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="19">
         <v>0.224</v>
       </c>
-      <c r="G70" s="58">
+      <c r="G70" s="19">
         <v>0.218</v>
       </c>
-      <c r="H70" s="68">
+      <c r="H70" s="29">
         <v>0.23599999999999999</v>
       </c>
-      <c r="I70" s="66">
+      <c r="I70" s="27">
         <v>0.22600000000000001</v>
       </c>
-      <c r="J70" s="66">
+      <c r="J70" s="27">
         <v>0.23599999999999999</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="19">
         <v>0.219</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="19">
         <v>0.216</v>
       </c>
-      <c r="M70" s="68">
+      <c r="M70" s="29">
         <v>0.23599999999999999</v>
       </c>
-      <c r="N70" s="58">
+      <c r="N70" s="19">
         <v>0.216</v>
       </c>
-      <c r="O70" s="50" t="s">
+      <c r="O70" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B71" s="44" t="s">
+    <row r="71" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B71" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="78">
+      <c r="C71" s="39">
         <v>13</v>
       </c>
-      <c r="D71" s="78">
+      <c r="D71" s="39">
         <v>13</v>
       </c>
-      <c r="E71" s="78">
+      <c r="E71" s="39">
         <v>9</v>
       </c>
-      <c r="F71" s="78">
+      <c r="F71" s="39">
         <v>15</v>
       </c>
-      <c r="G71" s="78">
+      <c r="G71" s="39">
         <v>14</v>
       </c>
-      <c r="H71" s="78">
+      <c r="H71" s="39">
         <v>13</v>
       </c>
-      <c r="I71" s="78">
+      <c r="I71" s="39">
         <v>12</v>
       </c>
-      <c r="J71" s="78">
+      <c r="J71" s="39">
         <v>17</v>
       </c>
-      <c r="K71" s="78">
+      <c r="K71" s="39">
         <v>12</v>
       </c>
-      <c r="L71" s="78">
+      <c r="L71" s="39">
         <v>14</v>
       </c>
-      <c r="M71" s="78">
+      <c r="M71" s="39">
         <v>12</v>
       </c>
-      <c r="N71" s="78">
+      <c r="N71" s="39">
         <v>12</v>
       </c>
-      <c r="O71" s="50" t="s">
+      <c r="O71" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="51"/>
-      <c r="C72" s="65">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="43"/>
+      <c r="C72" s="26">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D72" s="65">
+      <c r="D72" s="26">
         <v>0.27500000000000002</v>
       </c>
-      <c r="E72" s="65">
+      <c r="E72" s="26">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F72" s="62">
+      <c r="F72" s="23">
         <v>0.25600000000000001</v>
       </c>
-      <c r="G72" s="62">
+      <c r="G72" s="23">
         <v>0.26100000000000001</v>
       </c>
-      <c r="H72" s="62">
+      <c r="H72" s="23">
         <v>0.26200000000000001</v>
       </c>
-      <c r="I72" s="63">
+      <c r="I72" s="24">
         <v>0.28899999999999998</v>
       </c>
-      <c r="J72" s="64">
+      <c r="J72" s="25">
         <v>0.29899999999999999</v>
       </c>
-      <c r="K72" s="62">
+      <c r="K72" s="23">
         <v>0.26</v>
       </c>
-      <c r="L72" s="62">
+      <c r="L72" s="23">
         <v>0.26300000000000001</v>
       </c>
-      <c r="M72" s="61">
+      <c r="M72" s="22">
         <v>0.251</v>
       </c>
-      <c r="N72" s="54">
+      <c r="N72" s="16">
         <v>0.23300000000000001</v>
       </c>
-      <c r="O72" s="50" t="s">
+      <c r="O72" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="51"/>
-      <c r="C73" s="65">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="43"/>
+      <c r="C73" s="26">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D73" s="65">
+      <c r="D73" s="26">
         <v>0.26</v>
       </c>
-      <c r="E73" s="65">
+      <c r="E73" s="26">
         <v>0.254</v>
       </c>
-      <c r="F73" s="62">
+      <c r="F73" s="23">
         <v>0.245</v>
       </c>
-      <c r="G73" s="62">
+      <c r="G73" s="23">
         <v>0.249</v>
       </c>
-      <c r="H73" s="65">
+      <c r="H73" s="26">
         <v>0.254</v>
       </c>
-      <c r="I73" s="64">
+      <c r="I73" s="25">
         <v>0.27400000000000002</v>
       </c>
-      <c r="J73" s="79">
+      <c r="J73" s="40">
         <v>0.28599999999999998</v>
       </c>
-      <c r="K73" s="62">
+      <c r="K73" s="23">
         <v>0.247</v>
       </c>
-      <c r="L73" s="65">
+      <c r="L73" s="26">
         <v>0.249</v>
       </c>
-      <c r="M73" s="62">
+      <c r="M73" s="23">
         <v>0.23699999999999999</v>
       </c>
-      <c r="N73" s="54">
+      <c r="N73" s="16">
         <v>0.218</v>
       </c>
-      <c r="O73" s="50" t="s">
+      <c r="O73" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="55"/>
-      <c r="C74" s="74">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" s="44"/>
+      <c r="C74" s="35">
         <v>0.26</v>
       </c>
-      <c r="D74" s="74">
+      <c r="D74" s="35">
         <v>0.26</v>
       </c>
-      <c r="E74" s="67">
+      <c r="E74" s="28">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F74" s="68">
+      <c r="F74" s="29">
         <v>0.246</v>
       </c>
-      <c r="G74" s="67">
+      <c r="G74" s="28">
         <v>0.251</v>
       </c>
-      <c r="H74" s="67">
+      <c r="H74" s="28">
         <v>0.254</v>
       </c>
-      <c r="I74" s="69">
+      <c r="I74" s="30">
         <v>0.27600000000000002</v>
       </c>
-      <c r="J74" s="70">
+      <c r="J74" s="31">
         <v>0.28599999999999998</v>
       </c>
-      <c r="K74" s="68">
+      <c r="K74" s="29">
         <v>0.246</v>
       </c>
-      <c r="L74" s="67">
+      <c r="L74" s="28">
         <v>0.249</v>
       </c>
-      <c r="M74" s="68">
+      <c r="M74" s="29">
         <v>0.23799999999999999</v>
       </c>
-      <c r="N74" s="58">
+      <c r="N74" s="19">
         <v>0.218</v>
       </c>
-      <c r="O74" s="50" t="s">
+      <c r="O74" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B75" s="44" t="s">
+    <row r="75" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B75" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="78">
+      <c r="C75" s="39">
         <v>9</v>
       </c>
-      <c r="D75" s="78">
+      <c r="D75" s="39">
         <v>9</v>
       </c>
-      <c r="E75" s="78">
+      <c r="E75" s="39">
         <v>13</v>
       </c>
-      <c r="F75" s="78">
+      <c r="F75" s="39">
         <v>10</v>
       </c>
-      <c r="G75" s="78">
+      <c r="G75" s="39">
         <v>14</v>
       </c>
-      <c r="H75" s="78">
+      <c r="H75" s="39">
         <v>14</v>
       </c>
-      <c r="I75" s="78">
+      <c r="I75" s="39">
         <v>15</v>
       </c>
-      <c r="J75" s="78">
+      <c r="J75" s="39">
         <v>15</v>
       </c>
-      <c r="K75" s="78">
+      <c r="K75" s="39">
         <v>12</v>
       </c>
-      <c r="L75" s="78">
+      <c r="L75" s="39">
         <v>15</v>
       </c>
-      <c r="M75" s="78">
+      <c r="M75" s="39">
         <v>13</v>
       </c>
-      <c r="N75" s="78">
+      <c r="N75" s="39">
         <v>12</v>
       </c>
-      <c r="O75" s="50" t="s">
+      <c r="O75" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="51"/>
-      <c r="C76" s="54">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" s="43"/>
+      <c r="C76" s="16">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D76" s="54">
+      <c r="D76" s="16">
         <v>0.224</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="16">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F76" s="61">
+      <c r="F76" s="22">
         <v>0.246</v>
       </c>
-      <c r="G76" s="61">
+      <c r="G76" s="22">
         <v>0.24199999999999999</v>
       </c>
-      <c r="H76" s="61">
+      <c r="H76" s="22">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I76" s="61">
+      <c r="I76" s="22">
         <v>0.252</v>
       </c>
-      <c r="J76" s="62">
+      <c r="J76" s="23">
         <v>0.254</v>
       </c>
-      <c r="K76" s="79">
+      <c r="K76" s="40">
         <v>0.309</v>
       </c>
-      <c r="L76" s="79">
+      <c r="L76" s="40">
         <v>0.312</v>
       </c>
-      <c r="M76" s="64">
+      <c r="M76" s="25">
         <v>0.307</v>
       </c>
-      <c r="N76" s="80">
+      <c r="N76" s="41">
         <v>0.33</v>
       </c>
-      <c r="O76" s="50" t="s">
+      <c r="O76" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="51"/>
-      <c r="C77" s="53">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" s="43"/>
+      <c r="C77" s="15">
         <v>0.20899999999999999</v>
       </c>
-      <c r="D77" s="54">
+      <c r="D77" s="16">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="15">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F77" s="61">
+      <c r="F77" s="22">
         <v>0.23200000000000001</v>
       </c>
-      <c r="G77" s="61">
+      <c r="G77" s="22">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H77" s="54">
+      <c r="H77" s="16">
         <v>0.224</v>
       </c>
-      <c r="I77" s="61">
+      <c r="I77" s="22">
         <v>0.23400000000000001</v>
       </c>
-      <c r="J77" s="62">
+      <c r="J77" s="23">
         <v>0.23699999999999999</v>
       </c>
-      <c r="K77" s="64">
+      <c r="K77" s="25">
         <v>0.27900000000000003</v>
       </c>
-      <c r="L77" s="64">
+      <c r="L77" s="25">
         <v>0.28100000000000003</v>
       </c>
-      <c r="M77" s="64">
+      <c r="M77" s="25">
         <v>0.27600000000000002</v>
       </c>
-      <c r="N77" s="79">
+      <c r="N77" s="40">
         <v>0.29699999999999999</v>
       </c>
-      <c r="O77" s="50" t="s">
+      <c r="O77" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="55"/>
-      <c r="C78" s="57">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="44"/>
+      <c r="C78" s="18">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D78" s="58">
+      <c r="D78" s="19">
         <v>0.214</v>
       </c>
-      <c r="E78" s="57">
+      <c r="E78" s="18">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F78" s="66">
+      <c r="F78" s="27">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G78" s="66">
+      <c r="G78" s="27">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H78" s="58">
+      <c r="H78" s="19">
         <v>0.222</v>
       </c>
-      <c r="I78" s="66">
+      <c r="I78" s="27">
         <v>0.23300000000000001</v>
       </c>
-      <c r="J78" s="68">
+      <c r="J78" s="29">
         <v>0.23599999999999999</v>
       </c>
-      <c r="K78" s="69">
+      <c r="K78" s="30">
         <v>0.27400000000000002</v>
       </c>
-      <c r="L78" s="69">
+      <c r="L78" s="30">
         <v>0.27500000000000002</v>
       </c>
-      <c r="M78" s="69">
+      <c r="M78" s="30">
         <v>0.27</v>
       </c>
-      <c r="N78" s="70">
+      <c r="N78" s="31">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O78" s="50" t="s">
+      <c r="O78" s="13" t="s">
         <v>44</v>
       </c>
     </row>
